--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62bed0b45625b526/World_Bank_DRM/Cat DDO Roadmap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62bed0b45625b526/World_Bank_DRM/Cat_DDO_DRM_Diagnostic_Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1331" documentId="8_{897DEB52-8293-498E-AAF6-D0CE94892166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{544E320E-8B6F-4139-8176-5BA223BAA1EB}"/>
+  <xr:revisionPtr revIDLastSave="1528" documentId="8_{897DEB52-8293-498E-AAF6-D0CE94892166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54A2F92A-451F-43E5-A34F-7ABA31622AA4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Diagnostic Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>DRM Pillar</t>
   </si>
@@ -325,12 +325,6 @@
     <t>(1) Yes/No:</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <r>
       <t>Since the adoption of the National Development Strategy, have at least 50% of essential government entities*</t>
     </r>
@@ -396,14 +390,38 @@
     <t>Financial Protection</t>
   </si>
   <si>
-    <t>Number of questions unanswered</t>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cat-ddo-drm-diagnostic-dashboard.onrender.com </t>
+  </si>
+  <si>
+    <t>DRM System - Diagnostic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of questions unanswered: </t>
+  </si>
+  <si>
+    <t>1. Answer the questions in the following matrix.</t>
+  </si>
+  <si>
+    <t>Pillar</t>
+  </si>
+  <si>
+    <t>Subpillar</t>
+  </si>
+  <si>
+    <t>2. Go to the following website. The website may take some time to load. Please retry if needed.</t>
+  </si>
+  <si>
+    <t>3. Copy and Paste Cell E7 to the website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,19 +552,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -565,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -944,20 +1019,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,418 +1056,423 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Calculation" xfId="1" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1428,7 +1518,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Summary!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1449,7 +1539,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$14</c:f>
+              <c:f>Summary!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1494,16 +1584,34 @@
                   <c:pt idx="0">
                     <c:v>Legal and Institutional DRM Framework</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Legal and Institutional DRM Framework</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>Risk Identification</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Risk Reduction</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Risk Reduction</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Risk Reduction</c:v>
+                  </c:pt>
                   <c:pt idx="6">
                     <c:v>Preparedness</c:v>
                   </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Preparedness</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Preparedness</c:v>
+                  </c:pt>
                   <c:pt idx="9">
+                    <c:v>Financial Protection</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Financial Protection</c:v>
                   </c:pt>
                   <c:pt idx="11">
@@ -1515,33 +1623,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$14</c:f>
+              <c:f>Summary!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1550,10 +1658,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,7 +1677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Summary!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1590,7 +1698,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$14</c:f>
+              <c:f>Summary!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1635,16 +1743,34 @@
                   <c:pt idx="0">
                     <c:v>Legal and Institutional DRM Framework</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Legal and Institutional DRM Framework</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>Risk Identification</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Risk Reduction</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Risk Reduction</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Risk Reduction</c:v>
+                  </c:pt>
                   <c:pt idx="6">
                     <c:v>Preparedness</c:v>
                   </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Preparedness</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Preparedness</c:v>
+                  </c:pt>
                   <c:pt idx="9">
+                    <c:v>Financial Protection</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Financial Protection</c:v>
                   </c:pt>
                   <c:pt idx="11">
@@ -1656,39 +1782,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$14</c:f>
+              <c:f>Summary!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1710,7 +1836,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Summary!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1731,7 +1857,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$14</c:f>
+              <c:f>Summary!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1776,16 +1902,34 @@
                   <c:pt idx="0">
                     <c:v>Legal and Institutional DRM Framework</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Legal and Institutional DRM Framework</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>Risk Identification</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Risk Reduction</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Risk Reduction</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Risk Reduction</c:v>
+                  </c:pt>
                   <c:pt idx="6">
                     <c:v>Preparedness</c:v>
                   </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Preparedness</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Preparedness</c:v>
+                  </c:pt>
                   <c:pt idx="9">
+                    <c:v>Financial Protection</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Financial Protection</c:v>
                   </c:pt>
                   <c:pt idx="11">
@@ -1797,45 +1941,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:f>Summary!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,7 +1995,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Summary!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1872,7 +2016,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$14</c:f>
+              <c:f>Summary!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1917,16 +2061,34 @@
                   <c:pt idx="0">
                     <c:v>Legal and Institutional DRM Framework</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Legal and Institutional DRM Framework</c:v>
+                  </c:pt>
                   <c:pt idx="2">
                     <c:v>Risk Identification</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Risk Reduction</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Risk Reduction</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Risk Reduction</c:v>
+                  </c:pt>
                   <c:pt idx="6">
                     <c:v>Preparedness</c:v>
                   </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Preparedness</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Preparedness</c:v>
+                  </c:pt>
                   <c:pt idx="9">
+                    <c:v>Financial Protection</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Financial Protection</c:v>
                   </c:pt>
                   <c:pt idx="11">
@@ -1938,21 +2100,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$14</c:f>
+              <c:f>Summary!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1961,19 +2123,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2742,15 +2904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:colOff>550961</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>70237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
+      <xdr:colOff>611921</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>66428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3099,1126 +3261,1005 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E233A1B-F2D0-419A-984D-979291E6494E}">
-  <dimension ref="A5:AU49"/>
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:AU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:R25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="41.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="24" customWidth="1"/>
     <col min="6" max="6" width="54.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="24" customWidth="1"/>
     <col min="8" max="8" width="65" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="24" customWidth="1"/>
     <col min="10" max="10" width="55.5546875" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="37" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="24" customWidth="1"/>
     <col min="12" max="12" width="38.88671875" customWidth="1"/>
     <col min="13" max="14" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="47" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:47" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7"/>
-      <c r="B7" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65" t="s">
+    <row r="2" spans="2:47" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:47" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.35">
+      <c r="B4" s="143" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:47" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:47" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="145"/>
+    </row>
+    <row r="7" spans="2:47" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="146" t="str">
+        <f>_xlfn.TEXTJOIN(";",FALSE,Summary!I2:I14)</f>
+        <v>Pillar,Subpillar,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers;Legal and Institutional DRM Framework,DRM policies and institutions,0,0,0,0;Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,0,0;Risk Identification,Risk Identification,0,0,0,0;Risk Reduction,Territorial and urban planning,0,0,0,0;Risk Reduction,Public investment at the central level,0,0,0,0;Risk Reduction,Sector-specific risk reduction measures,0,0,0,0;Preparedness,Early Warning Systems (EWS),0,0,0,0;Preparedness,Emergency Preparedness and Response (EP&amp;R),0,0,0,0;Preparedness,Adaptive Social Protection (ASP),0,0,0,0;Financial Protection,Fiscal risk management,0,0,0,0;Financial Protection,Disaster Risk Financing (DRF) strategies and instruments,0,0,0,0;Resilient Reconstruction,Resilient Reconstruction,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:47" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="67">
+        <f>64-(COUNTIF('Diagnostic Questions'!D12:K50,"YES")+COUNTIF('Diagnostic Questions'!D12:K50,"NO"))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:47" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="142" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:47" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D12" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="66" t="s">
+      <c r="E12" s="131"/>
+      <c r="F12" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="66" t="s">
+      <c r="G12" s="131"/>
+      <c r="H12" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="66" t="s">
+      <c r="I12" s="131"/>
+      <c r="J12" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-    </row>
-    <row r="8" spans="1:47" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="39" t="s">
+      <c r="K12" s="130"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+    </row>
+    <row r="13" spans="2:47" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C13" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D13" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="94" t="s">
+      <c r="E13" s="132"/>
+      <c r="F13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106" t="s">
+      <c r="G13" s="132"/>
+      <c r="H13" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="106" t="s">
+      <c r="I13" s="133"/>
+      <c r="J13" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="111" t="s">
+      <c r="K13" s="128"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="69"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="69"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="2:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="69"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="2:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="69"/>
+      <c r="C18" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="117"/>
+      <c r="H18" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="I18" s="120"/>
+      <c r="J18" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="121"/>
+      <c r="L18" s="34"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="70"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="43" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="35"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="115"/>
+      <c r="F20" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="115"/>
+      <c r="H20" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="115"/>
+      <c r="J20" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="124"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="112"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="43" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="113"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="87"/>
+      <c r="F23" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="87"/>
+      <c r="H23" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="87"/>
+      <c r="J23" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="126"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="69"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="69"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="2:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="69"/>
+      <c r="C26" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="84"/>
+      <c r="F26" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="84"/>
+      <c r="H26" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="84"/>
+      <c r="J26" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="77"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="69"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="43" t="s">
+      <c r="K27" s="18"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="69"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="50" t="s">
+      <c r="K28" s="23"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="2:14" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="69"/>
+      <c r="C29" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="76"/>
+      <c r="F29" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="85"/>
+      <c r="H29" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="76"/>
+      <c r="J29" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="77"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="69"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="69"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="38"/>
-    </row>
-    <row r="13" spans="1:47" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="104"/>
-      <c r="L13" s="61"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="69"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="69"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="2:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="69"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="97"/>
+      <c r="F34" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="76"/>
+      <c r="H34" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="85"/>
+      <c r="J34" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="98"/>
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="69"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="47" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="47" t="s">
+      <c r="G35" s="11"/>
+      <c r="H35" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="47" t="s">
+      <c r="K35" s="18"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="70"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="79"/>
+      <c r="F37" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="79"/>
+      <c r="H37" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="79"/>
+      <c r="J37" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="99"/>
+      <c r="L37" s="36"/>
+    </row>
+    <row r="38" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="112"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="62"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:47" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="20"/>
+      <c r="L38" s="36"/>
+    </row>
+    <row r="39" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="112"/>
+      <c r="C39" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="101"/>
+      <c r="F39" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="101"/>
+      <c r="H39" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="107"/>
+      <c r="J39" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="103"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="112"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="112"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="22"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="112"/>
+      <c r="C42" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="101"/>
+      <c r="F42" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="101"/>
+      <c r="H42" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="105"/>
+      <c r="J42" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="104"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="113"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="20"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="87"/>
+      <c r="F44" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="87"/>
+      <c r="H44" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="87"/>
+      <c r="J44" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="93"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="69"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="23"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="2:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="69"/>
+      <c r="C46" s="138" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="88"/>
+      <c r="F46" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="92"/>
+      <c r="H46" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="88"/>
+      <c r="J46" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="94"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="69"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="18"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="70"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="97"/>
-      <c r="J15" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="38"/>
-    </row>
-    <row r="16" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="14" t="s">
+      <c r="D49" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="79"/>
+      <c r="F49" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="90"/>
+      <c r="H49" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="79"/>
+      <c r="J49" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="K49" s="96"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="113"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="E50" s="19"/>
+      <c r="F50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="G50" s="19"/>
+      <c r="H50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="23"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="124"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="43" t="s">
+      <c r="I50" s="19"/>
+      <c r="J50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="2:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="92"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="38"/>
-    </row>
-    <row r="24" spans="2:13" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="41"/>
-      <c r="C24" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="92"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="125"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="125"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="125"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="2:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="90"/>
-      <c r="J29" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="91"/>
-      <c r="L29" s="38"/>
-    </row>
-    <row r="30" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="127" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="38"/>
-    </row>
-    <row r="31" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" s="126"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="38"/>
-    </row>
-    <row r="32" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="85"/>
-      <c r="J32" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="86"/>
-      <c r="L32" s="63"/>
-    </row>
-    <row r="33" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="L33" s="63"/>
-    </row>
-    <row r="34" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26"/>
-      <c r="C34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="78"/>
-      <c r="H34" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="82"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L35" s="59"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="26"/>
-      <c r="C37" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="81"/>
-      <c r="J37" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="140"/>
-      <c r="L37" s="38"/>
-    </row>
-    <row r="38" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" s="38"/>
-    </row>
-    <row r="39" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="70"/>
-      <c r="J39" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="71"/>
-      <c r="L39" s="59"/>
-    </row>
-    <row r="40" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="41"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="L40" s="59"/>
-    </row>
-    <row r="41" spans="2:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" s="73"/>
-      <c r="J41" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="76"/>
-      <c r="L41" s="59"/>
-    </row>
-    <row r="42" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="127" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L42" s="59"/>
-    </row>
-    <row r="43" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="45"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="128"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="59"/>
-    </row>
-    <row r="44" spans="2:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="85"/>
-      <c r="F44" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="133"/>
-      <c r="H44" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="I44" s="85"/>
-      <c r="J44" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="K44" s="135"/>
-      <c r="L44" s="59"/>
-    </row>
-    <row r="45" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L45" s="59"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D46" s="13"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="36"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D47" s="13"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="36"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D48" s="13"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="36"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D49" s="13"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="36"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B18:B31"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H21:I21"/>
+  <mergeCells count="76">
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K22:K23 G9 E9 E14 G14 I14 K14 I11 G16:G17 K9:K11 E16 I16 K16 I19 G19 E19 E22 G22 G25 E30 I30:I31 G35 E35 K30 K35 E42 I42 E25:E28 G30 I33 K33 G33 E33 I35:I36 K38 I38 G38 E38 E40 E45 G45 G42:G43 I45 K45 K40 I40 G40 I25 K25 I22 K19:K20 I9 K42" xr:uid="{4F850B23-72D3-42CE-AFF7-E77C4B7FF2EF}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:K28 G14 E14 E19 G19 I19 K19 I16 G21:G22 K14:K16 E21 I21 K21 I24 G24 E24 E27 G27 G30 E35 I35:I36 G40 E40 K35 K40 E47 I47 E30:E33 G35 I38 K38 G38 E38 I40:I41 K43 I43 G43 E43 E45 E50 G50 G47:G48 I50 K50 K45 I45 G45 I30 K30 I27 K24:K25 I14 K47" xr:uid="{4F850B23-72D3-42CE-AFF7-E77C4B7FF2EF}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{1CA86482-C762-4B74-AE4C-5776DD22645C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Official Use Only</oddFooter>
   </headerFooter>
@@ -4227,10 +4268,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F2FEA7-2755-42AA-AE92-AD811EBA4B74}">
-  <dimension ref="B2:G16"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4238,312 +4282,373 @@
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110" t="s">
+    <row r="2" spans="2:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="109" t="s">
+      <c r="I2" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,B2:G2)</f>
+        <v>Pillar,Subpillar,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="39">
+        <f>IF('Diagnostic Questions'!E14="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IF('Diagnostic Questions'!G14="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <f>0.5*IF('Diagnostic Questions'!I14="Yes",1,0) + 0.5*IF('Diagnostic Questions'!I16="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="39">
+        <f>ROUND(0.3333*IF('Diagnostic Questions'!K14="Yes",1,0) + 0.3333*IF('Diagnostic Questions'!K15="Yes",1,0) + 0.3333*IF('Diagnostic Questions'!K16="Yes",1,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,B3:G3)</f>
+        <v>Legal and Institutional DRM Framework,DRM policies and institutions,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="39">
+        <f>IF('Diagnostic Questions'!E19="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <f>IF('Diagnostic Questions'!G19="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <f>IF('Diagnostic Questions'!I19="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="39">
+        <f>IF('Diagnostic Questions'!K19="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,B4:G4)</f>
+        <v>Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="39">
+        <f>IF('Diagnostic Questions'!E21="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="39">
+        <f>0.5*IF('Diagnostic Questions'!G21="Yes",1,0) + 0.5*IF('Diagnostic Questions'!G22="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <f>IF('Diagnostic Questions'!I21="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="39">
+        <f>IF('Diagnostic Questions'!K21="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I14" si="0">_xlfn.TEXTJOIN(",",FALSE,B5:G5)</f>
+        <v>Risk Identification,Risk Identification,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="39">
+        <f>IF('Diagnostic Questions'!E24="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="39">
+        <f>IF('Diagnostic Questions'!G24="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f>IF('Diagnostic Questions'!I24="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <f>0.5*IF('Diagnostic Questions'!K24="Yes",1,0) + 0.5*IF('Diagnostic Questions'!K25="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>Risk Reduction,Territorial and urban planning,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="39">
+        <f>IF('Diagnostic Questions'!E27="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="39">
+        <f>IF('Diagnostic Questions'!G27="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="39">
+        <f>IF('Diagnostic Questions'!I27="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <f>0.5*IF('Diagnostic Questions'!K27="Yes",1,0) + 0.5*IF('Diagnostic Questions'!K28="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>Risk Reduction,Public investment at the central level,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="39">
+        <f>0.5*(0.25*IF('Diagnostic Questions'!E30="Yes",1,0)+0.25*IF('Diagnostic Questions'!E31="Yes",1,0)+0.25*IF('Diagnostic Questions'!E32="Yes",1,0)+0.25*IF('Diagnostic Questions'!E33="Yes",1,0))+0.5*IF('Diagnostic Questions'!E35="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="39">
+        <f>0.5*IF('Diagnostic Questions'!G30="Yes",1,0)+0.5*IF('Diagnostic Questions'!G35="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <f>0.5*IF('Diagnostic Questions'!I30="Yes",1,0)+0.5*(0.5*IF('Diagnostic Questions'!I35="Yes",1,0)+0.5*IF('Diagnostic Questions'!I36="Yes",1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="39">
+        <f>0.5*IF('Diagnostic Questions'!K30="Yes",1,0)+0.5*IF('Diagnostic Questions'!K35="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>Risk Reduction,Sector-specific risk reduction measures,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="109">
-        <f>IF(Questions!E9="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f>IF(Questions!G9="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="109">
-        <f>0.5*IF(Questions!I9="Yes",1,0) + 0.5*IF(Questions!I11="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="109">
-        <f>ROUND(0.3333*IF(Questions!K9="Yes",1,0) + 0.3333*IF(Questions!K10="Yes",1,0) + 0.3333*IF(Questions!K11="Yes",1,0),2)</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="109"/>
-      <c r="C4" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="109">
-        <f>IF(Questions!E14="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="109">
-        <f>IF(Questions!G14="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="109">
-        <f>IF(Questions!I14="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="109">
-        <f>IF(Questions!K14="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="109">
-        <f>IF(Questions!E16="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="109">
-        <f>0.5*IF(Questions!G16="Yes",1,0) + 0.5*IF(Questions!G17="Yes",1,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="109">
-        <f>IF(Questions!I16="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="109">
-        <f>IF(Questions!K16="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="109" t="s">
+      <c r="C9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="39">
+        <f>IF('Diagnostic Questions'!E38="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="39">
+        <f>IF('Diagnostic Questions'!G38="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="39">
+        <f>IF('Diagnostic Questions'!I38="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="39">
+        <f>IF('Diagnostic Questions'!K38="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>Preparedness,Early Warning Systems (EWS),0,0,0,0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="39">
+        <f>IF('Diagnostic Questions'!E40="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="39">
+        <f>IF('Diagnostic Questions'!G40="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <f>0.5*IF('Diagnostic Questions'!I40="Yes",1,0) + 0.5*IF('Diagnostic Questions'!I41="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="39">
+        <f>IF('Diagnostic Questions'!K40="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>Preparedness,Emergency Preparedness and Response (EP&amp;R),0,0,0,0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="39">
+        <f>IF('Diagnostic Questions'!E43="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="39">
+        <f>IF('Diagnostic Questions'!G43="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="39">
+        <f>IF('Diagnostic Questions'!I43="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="39">
+        <f>IF('Diagnostic Questions'!K43="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>Preparedness,Adaptive Social Protection (ASP),0,0,0,0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="109">
-        <f>IF(Questions!E19="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="109">
-        <f>IF(Questions!G19="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="109">
-        <f>IF(Questions!I19="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="109">
-        <f>0.5*IF(Questions!K19="Yes",1,0) + 0.5*IF(Questions!K20="Yes",1,0)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="109"/>
-      <c r="C7" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="109">
-        <f>IF(Questions!E22="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="109">
-        <f>IF(Questions!G22="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="109">
-        <f>IF(Questions!I22="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="109">
-        <f>0.5*IF(Questions!K22="Yes",1,0) + 0.5*IF(Questions!K23="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="109"/>
-      <c r="C8" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="109">
-        <f>0.5*(0.25*IF(Questions!E25="Yes",1,0)+0.25*IF(Questions!E26="Yes",1,0)+0.25*IF(Questions!E27="Yes",1,0)+0.25*IF(Questions!E28="Yes",1,0))+0.5*IF(Questions!E30="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="109">
-        <f>0.5*IF(Questions!G25="Yes",1,0)+0.5*IF(Questions!G30="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="109">
-        <f>0.5*IF(Questions!I25="Yes",1,0)+0.5*(0.5*IF(Questions!I30="Yes",1,0)+0.5*IF(Questions!I31="Yes",1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="109">
-        <f>0.5*IF(Questions!K25="Yes",1,0)+0.5*IF(Questions!K30="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="109">
-        <f>IF(Questions!E33="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="109">
-        <f>IF(Questions!G33="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="109">
-        <f>IF(Questions!I33="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="109">
-        <f>IF(Questions!K33="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="109"/>
-      <c r="C10" s="109" t="s">
+      <c r="C12" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="109">
-        <f>IF(Questions!E35="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="109">
-        <f>IF(Questions!G35="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="109">
-        <f>0.5*IF(Questions!I35="Yes",1,0) + 0.5*IF(Questions!I36="Yes",1,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="109">
-        <f>IF(Questions!K35="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="109"/>
-      <c r="C11" s="109" t="s">
+      <c r="D12" s="39">
+        <f>IF('Diagnostic Questions'!E45="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="39">
+        <f>IF('Diagnostic Questions'!G45="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <f>IF('Diagnostic Questions'!I45="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="39">
+        <f>IF('Diagnostic Questions'!K45="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>Financial Protection,Fiscal risk management,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="109">
-        <f>IF(Questions!E38="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="109">
-        <f>IF(Questions!G38="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="109">
-        <f>IF(Questions!I38="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="109">
-        <f>IF(Questions!K38="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="109" t="s">
+      <c r="D13" s="39">
+        <f>IF('Diagnostic Questions'!E47="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="39">
+        <f>0.5*IF('Diagnostic Questions'!G47="Yes",1,0)+0.5*IF('Diagnostic Questions'!G48="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <f>IF('Diagnostic Questions'!I47="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="39">
+        <f>IF('Diagnostic Questions'!K47="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>Financial Protection,Disaster Risk Financing (DRF) strategies and instruments,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="109">
-        <f>IF(Questions!E40="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="109">
-        <f>IF(Questions!G40="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="109">
-        <f>IF(Questions!I40="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="109">
-        <f>IF(Questions!K40="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="109"/>
-      <c r="C13" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="109">
-        <f>IF(Questions!E42="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="109">
-        <f>0.5*IF(Questions!G42="Yes",1,0)+0.5*IF(Questions!G43="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="109">
-        <f>IF(Questions!I42="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="109">
-        <f>IF(Questions!K42="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="109">
-        <f>IF(Questions!E45="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="109">
-        <f>IF(Questions!G45="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="109">
-        <f>IF(Questions!I45="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="109">
-        <f>IF(Questions!K45="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="144">
-        <f>64-(COUNTIF(Questions!D7:K45,"YES")+COUNTIF(Questions!D7:K45,"NO"))</f>
-        <v>0</v>
-      </c>
+      <c r="C14" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="39">
+        <f>IF('Diagnostic Questions'!E50="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="39">
+        <f>IF('Diagnostic Questions'!G50="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
+        <f>IF('Diagnostic Questions'!I50="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="39">
+        <f>IF('Diagnostic Questions'!K50="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>Resilient Reconstruction,Resilient Reconstruction,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62bed0b45625b526/World_Bank_DRM/Cat_DDO_DRM_Diagnostic_Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1528" documentId="8_{897DEB52-8293-498E-AAF6-D0CE94892166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54A2F92A-451F-43E5-A34F-7ABA31622AA4}"/>
+  <xr:revisionPtr revIDLastSave="1609" documentId="8_{897DEB52-8293-498E-AAF6-D0CE94892166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDDBB970-0B64-4DE6-B91C-21E2C866740E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagnostic Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Summary (to be hidden)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
   <si>
     <t>DRM Pillar</t>
   </si>
   <si>
-    <t>DRM sub-pillar</t>
-  </si>
-  <si>
     <t>Legal and institutional set up</t>
   </si>
   <si>
@@ -60,22 +57,9 @@
     <t>1.1. DRM policies and institutions</t>
   </si>
   <si>
-    <t>Is there a legal framework (e.g., DRM law or others) defining distinct mandates for, on the one hand, disaster risk reduction and, on the other, emergency management?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Did the institution responsible for coordinating or leading DRM activities receive dedicated funding for these functions in the last fiscal year? </t>
   </si>
   <si>
-    <t xml:space="preserve">Since the adoption of the DRM legal framework: 
-(1) have DRM policy instruments (e.g., DRM strategies or policies) been officially approved? 
-(2)  have DRM-related regulations (e.g., rules on the structure or functions of the DRM agency) been officially approved? If yes, please specify which policy document(s) and/or regulation(s). </t>
-  </si>
-  <si>
-    <t>(1) Are gender-specific considerations included in DRM legal frameworks? 
-(2) Is climate change and its potential impact on disaster risk included in DRM legal frameworks? 
-(3) When they exist, do climate change laws and regulations (such as climate laws or climate adaptation policy/strategies) contain disaster risk management as a target, aim, mean or result?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes/No: </t>
   </si>
   <si>
@@ -83,9 +67,6 @@
   </si>
   <si>
     <t>Does the National Development Strategy (or equivalent national planning instrument) contain objectives, targets or indicators related to DRM and/or CCA?</t>
-  </si>
-  <si>
-    <t>Is there a reporting or monitoring mechanism to track progress toward DRM and/or CCA targets included in the National Development Strategies? If yes, please report those progress</t>
   </si>
   <si>
     <t xml:space="preserve">Is the integration of DRM considerations into sectoral planning documents coordinated at the central level and guided by norms and clear standards? </t>
@@ -111,9 +92,6 @@
     <t>3.1. Territorial and urban planning</t>
   </si>
   <si>
-    <t>Do laws and regulations mandate the use of risk information (e.g., hazard maps, risk assessments...) to develop territorial, spatial, land use or urban planning instruments?</t>
-  </si>
-  <si>
     <t>Do official methodologies to guide the development of risk-informed territorial, spatial, land use or urban planning instruments exist?</t>
   </si>
   <si>
@@ -128,9 +106,6 @@
   </si>
   <si>
     <t>Do laws and regulations mandate disaster and climate risk screening as part of the appraisal of new public investment projects?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do official guidelines defining disaster and climate risk screening methodologies for new public investment projects exist? </t>
   </si>
   <si>
     <t>Are risk mitigation measures in place for new projects that have been appraised as high-risk (or equivalent) through the disaster and climate screening process?</t>
@@ -156,12 +131,6 @@
     <t>Is there an asset management system for public infrastructure that includes disaster risk analysis?</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the legal framework and institutional arrangements for water supply and sanitation in urban areas considering flood risk? </t>
-  </si>
-  <si>
-    <t>Is there a legal framework and institutional arrangements for integrated water resources management (IWRM) that explicitly incorporates flood and drought risk considerations?</t>
-  </si>
-  <si>
     <t>Over the last 4 years: 
 (1) have any watershed basins undergone improvements in water management?
 (2) has the percentage of urban residents with access to sewage services been maintained or increased?</t>
@@ -206,9 +175,6 @@
     <t>Is there a unified social registry incorporating exposure and vulnerability data to facilitate the targeting of population potentially affected in case of disaster or climate-related shocks?</t>
   </si>
   <si>
-    <t>During the most recent disaster or climate-related shocks, was support promptly provided to the population through social‐protection programs?  (e.g., cash transfers in the case of drought)?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Are there pre-arranged financing mechanisms that can be specifically used to support timely scaling-up of regular SP programs? </t>
   </si>
   <si>
@@ -224,23 +190,14 @@
     <t>Are contingent liabilities associated with disasters quantified through an established methodology for the major hazards?</t>
   </si>
   <si>
-    <t>Do key fiscal policy documents (e.g., the medium-term fiscal framework or fiscal risk statements) include quantified assessments of disaster risks? If yes, please specify which document(s).</t>
-  </si>
-  <si>
     <t>Has the government conducted stress tests of public debt that include disaster or climate-related scenarios?</t>
   </si>
   <si>
     <t>5.2. Disaster Risk Financing (DRF) strategies and instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there sovereign risk financing instruments (e.g., disaster or emergency funds, contingent loans, insurance or other risk transfer mechanisms) in place to manage the financial impact of disasters and climate-related shocks? If yes, please list them. </t>
   </si>
   <si>
     <t>(1) Is the disaster fund (or equivalent mechanism) receiving a budget allocation? 
 (2) Are there regulations that define standards for catastrophe insurance coverage of public or private assets?</t>
-  </si>
-  <si>
-    <t>Over the past 4 years, has the $ amount of financing that can be mobilized through sovereign risk financing instruments increased? Please provide numbers when available</t>
   </si>
   <si>
     <t>Is there a legal or policy framework that outlines a layered Disaster Risk Financing (DRF) strategy combining risk retention and risk transfer instruments?</t>
@@ -300,10 +257,6 @@
     <t>Is there a legal framework clearly defining the roles and responsibility of institutions involved in Early Warning Systems, avoiding fragmentation?</t>
   </si>
   <si>
-    <t>(1) Does at least 75% of essential government entities have an emergency response protocol / operational continuity plan? 
-(2) Does at least 75% of subnational EP&amp;R entities have an approved contingency plan / emergency response protocol?</t>
-  </si>
-  <si>
     <t>Intermediary DRM outputs</t>
   </si>
   <si>
@@ -360,21 +313,9 @@
     <t>Sector-specific risk reduction measures</t>
   </si>
   <si>
-    <t>Early Warning Systems (EWS)</t>
-  </si>
-  <si>
-    <t>Emergency Preparedness and Response (EP&amp;R)</t>
-  </si>
-  <si>
-    <t>Adaptive Social Protection (ASP)</t>
-  </si>
-  <si>
     <t>Fiscal risk management</t>
   </si>
   <si>
-    <t>Disaster Risk Financing (DRF) strategies and instruments</t>
-  </si>
-  <si>
     <t>Resilient Reconstruction</t>
   </si>
   <si>
@@ -405,23 +346,143 @@
     <t>1. Answer the questions in the following matrix.</t>
   </si>
   <si>
-    <t>Pillar</t>
-  </si>
-  <si>
-    <t>Subpillar</t>
-  </si>
-  <si>
     <t>2. Go to the following website. The website may take some time to load. Please retry if needed.</t>
   </si>
   <si>
     <t>3. Copy and Paste Cell E7 to the website</t>
+  </si>
+  <si>
+    <t>Thematic Area</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>DRF strategies and instruments</t>
+  </si>
+  <si>
+    <t>Risk identification</t>
+  </si>
+  <si>
+    <t>Early warning systems</t>
+  </si>
+  <si>
+    <t>Emergency preparedness and response</t>
+  </si>
+  <si>
+    <t>Adaptive social protection</t>
+  </si>
+  <si>
+    <t>Resilient reconstruction</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Is there a legal framework (e.g., a DRM law or other instruments) defining distinct mandates for disaster risk reduction and emergency management?</t>
+  </si>
+  <si>
+    <t>(1) Are gender-specific considerations included in DRM legal frameworks? 
+(2) Is climate change and its potential impact on disaster risk included in DRM legal frameworks? 
+(3) When they exist, do climate change laws and regulations (such as climate laws or climate adaptation policy/strategies) contain disaster risk management as a target, aim, means, or result?</t>
+  </si>
+  <si>
+    <t>Do laws and regulations mandate the use of risk information (e.g., hazard maps, risk assessments...) to develop territorial, spatial, land use, or urban planning instruments?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do official guidelines exist defining disaster and climate risk screening methodologies for new public investment projects? </t>
+  </si>
+  <si>
+    <t>Do the legal framework and institutional arrangements for water supply and sanitation in urban areas take flood risk into account?</t>
+  </si>
+  <si>
+    <t>Are there legal and institutional arrangements for integrated water resources management (IWRM) that explicitly incorporate flood and drought risk considerations?</t>
+  </si>
+  <si>
+    <t>(1) Do at least 75% of essential government entities have an emergency response protocol or operational continuity plan? 
+(2) Do at least 75% of subnational EP&amp;R entities have an approved contingency plan or emergency response protocol?</t>
+  </si>
+  <si>
+    <t>During the most recent disaster or climate-related shock, was support promptly provided to the population through social‐protection programs?  (e.g., cash transfers in the case of drought)?</t>
+  </si>
+  <si>
+    <r>
+      <t>Over the past 4 years, has the $ amount of financing that can be mobilized through sovereign risk financing instruments increased?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Please provide numbers when available</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Since the adoption of the DRM legal framework: 
+(1) have DRM policy instruments (e.g., DRM strategies or policies) been officially approved? 
+(2)  have DRM-related regulations (e.g., rules on the structure or functions of the DRM agency) been officially approved? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If yes, please specify which policy document(s) and/or regulation(s). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Is there a reporting or monitoring mechanism to track progress toward DRM and/or CCA targets included in the National Development Strategies?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> If yes, please report those progress</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do key fiscal policy documents (e.g., the medium-term fiscal framework or fiscal risk statements) include quantified assessments of disaster risks? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>If yes, please specify which document(s).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are there sovereign risk financing instruments (e.g., disaster or emergency funds, contingent loans, insurance or other risk transfer mechanisms) in place to manage the financial impact of disasters and climate-related shocks? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If yes, please list them. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +675,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1038,7 +1105,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1237,233 +1304,227 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -1518,7 +1579,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$D$2</c:f>
+              <c:f>'Summary (to be hidden)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1539,7 +1600,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Summary!$B$3:$C$14</c:f>
+              <c:f>'Summary (to be hidden)'!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1550,7 +1611,7 @@
                     <c:v>Mainstreaming DRM into national and sectoral development plans</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Risk Identification</c:v>
+                    <c:v>Risk identification</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Territorial and urban planning</c:v>
@@ -1562,22 +1623,22 @@
                     <c:v>Sector-specific risk reduction measures</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Early Warning Systems (EWS)</c:v>
+                    <c:v>Early warning systems</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Emergency Preparedness and Response (EP&amp;R)</c:v>
+                    <c:v>Emergency preparedness and response</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Adaptive Social Protection (ASP)</c:v>
+                    <c:v>Adaptive social protection</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Fiscal risk management</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Disaster Risk Financing (DRF) strategies and instruments</c:v>
+                    <c:v>DRF strategies and instruments</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Resilient Reconstruction</c:v>
+                    <c:v>Resilient reconstruction</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1623,12 +1684,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$D$3:$D$14</c:f>
+              <c:f>'Summary (to be hidden)'!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1637,16 +1698,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1677,7 +1738,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$E$2</c:f>
+              <c:f>'Summary (to be hidden)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1698,7 +1759,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Summary!$B$3:$C$14</c:f>
+              <c:f>'Summary (to be hidden)'!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1709,7 +1770,7 @@
                     <c:v>Mainstreaming DRM into national and sectoral development plans</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Risk Identification</c:v>
+                    <c:v>Risk identification</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Territorial and urban planning</c:v>
@@ -1721,22 +1782,22 @@
                     <c:v>Sector-specific risk reduction measures</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Early Warning Systems (EWS)</c:v>
+                    <c:v>Early warning systems</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Emergency Preparedness and Response (EP&amp;R)</c:v>
+                    <c:v>Emergency preparedness and response</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Adaptive Social Protection (ASP)</c:v>
+                    <c:v>Adaptive social protection</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Fiscal risk management</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Disaster Risk Financing (DRF) strategies and instruments</c:v>
+                    <c:v>DRF strategies and instruments</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Resilient Reconstruction</c:v>
+                    <c:v>Resilient reconstruction</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1782,7 +1843,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$E$3:$E$14</c:f>
+              <c:f>'Summary (to be hidden)'!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1793,16 +1854,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1836,7 +1897,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$F$2</c:f>
+              <c:f>'Summary (to be hidden)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1857,7 +1918,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Summary!$B$3:$C$14</c:f>
+              <c:f>'Summary (to be hidden)'!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1868,7 +1929,7 @@
                     <c:v>Mainstreaming DRM into national and sectoral development plans</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Risk Identification</c:v>
+                    <c:v>Risk identification</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Territorial and urban planning</c:v>
@@ -1880,22 +1941,22 @@
                     <c:v>Sector-specific risk reduction measures</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Early Warning Systems (EWS)</c:v>
+                    <c:v>Early warning systems</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Emergency Preparedness and Response (EP&amp;R)</c:v>
+                    <c:v>Emergency preparedness and response</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Adaptive Social Protection (ASP)</c:v>
+                    <c:v>Adaptive social protection</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Fiscal risk management</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Disaster Risk Financing (DRF) strategies and instruments</c:v>
+                    <c:v>DRF strategies and instruments</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Resilient Reconstruction</c:v>
+                    <c:v>Resilient reconstruction</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1941,33 +2002,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$3:$F$14</c:f>
+              <c:f>'Summary (to be hidden)'!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1995,7 +2056,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$G$2</c:f>
+              <c:f>'Summary (to be hidden)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2016,7 +2077,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Summary!$B$3:$C$14</c:f>
+              <c:f>'Summary (to be hidden)'!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -2027,7 +2088,7 @@
                     <c:v>Mainstreaming DRM into national and sectoral development plans</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Risk Identification</c:v>
+                    <c:v>Risk identification</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Territorial and urban planning</c:v>
@@ -2039,22 +2100,22 @@
                     <c:v>Sector-specific risk reduction measures</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Early Warning Systems (EWS)</c:v>
+                    <c:v>Early warning systems</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Emergency Preparedness and Response (EP&amp;R)</c:v>
+                    <c:v>Emergency preparedness and response</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Adaptive Social Protection (ASP)</c:v>
+                    <c:v>Adaptive social protection</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Fiscal risk management</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Disaster Risk Financing (DRF) strategies and instruments</c:v>
+                    <c:v>DRF strategies and instruments</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Resilient Reconstruction</c:v>
+                    <c:v>Resilient reconstruction</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2100,7 +2161,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$G$3:$G$14</c:f>
+              <c:f>'Summary (to be hidden)'!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2108,25 +2169,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3267,7 +3328,7 @@
   <dimension ref="B2:AU50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3289,53 +3350,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:47" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="141" t="s">
-        <v>101</v>
+      <c r="B2" s="68" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:47" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="B4" s="143" t="s">
-        <v>99</v>
+      <c r="B4" s="70" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:47" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="144" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="145"/>
+      <c r="B6" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="146" t="str">
-        <f>_xlfn.TEXTJOIN(";",FALSE,Summary!I2:I14)</f>
-        <v>Pillar,Subpillar,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers;Legal and Institutional DRM Framework,DRM policies and institutions,0,0,0,0;Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,0,0;Risk Identification,Risk Identification,0,0,0,0;Risk Reduction,Territorial and urban planning,0,0,0,0;Risk Reduction,Public investment at the central level,0,0,0,0;Risk Reduction,Sector-specific risk reduction measures,0,0,0,0;Preparedness,Early Warning Systems (EWS),0,0,0,0;Preparedness,Emergency Preparedness and Response (EP&amp;R),0,0,0,0;Preparedness,Adaptive Social Protection (ASP),0,0,0,0;Financial Protection,Fiscal risk management,0,0,0,0;Financial Protection,Disaster Risk Financing (DRF) strategies and instruments,0,0,0,0;Resilient Reconstruction,Resilient Reconstruction,0,0,0,0</v>
+        <v>87</v>
+      </c>
+      <c r="E7" s="71" t="str">
+        <f>_xlfn.TEXTJOIN(";",FALSE,'Summary (to be hidden)'!I2:I14)</f>
+        <v>DRM Pillar,Thematic Area,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers;Legal and Institutional DRM Framework,DRM policies and institutions,1,0,1,0;Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,1,1;Risk Identification,Risk identification,0,0.5,0,1;Risk Reduction,Territorial and urban planning,1,1,1,1;Risk Reduction,Public investment at the central level,0,0,0,0;Risk Reduction,Sector-specific risk reduction measures,0.875,0.5,0.5,1;Preparedness,Early warning systems,1,0,1,1;Preparedness,Emergency preparedness and response,0,0,1,1;Preparedness,Adaptive social protection,0,0,0,0;Financial Protection,Fiscal risk management,0,0,0,0;Financial Protection,DRF strategies and instruments,0,0,0,0;Resilient Reconstruction,Resilient reconstruction,0,0,0,0</v>
       </c>
     </row>
     <row r="9" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E9" s="67">
         <f>64-(COUNTIF('Diagnostic Questions'!D12:K50,"YES")+COUNTIF('Diagnostic Questions'!D12:K50,"NO"))</f>
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:47" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="142" t="s">
-        <v>82</v>
+      <c r="B10" s="69" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3344,24 +3405,24 @@
         <v>0</v>
       </c>
       <c r="C12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="E12" s="103"/>
+      <c r="F12" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="103"/>
+      <c r="H12" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="131"/>
-      <c r="H12" s="129" t="s">
+      <c r="I12" s="103"/>
+      <c r="J12" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="131"/>
-      <c r="J12" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="130"/>
+      <c r="K12" s="102"/>
       <c r="L12" s="33"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3399,55 +3460,63 @@
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
     </row>
-    <row r="13" spans="2:47" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="68" t="s">
+    <row r="13" spans="2:47" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="D13" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="105"/>
+      <c r="F13" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="G13" s="105"/>
+      <c r="H13" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="73"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="132"/>
-      <c r="F13" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="128"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="66" t="s">
+        <v>89</v>
+      </c>
       <c r="F14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="H14" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="J14" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="L14" s="25"/>
     </row>
     <row r="15" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="44"/>
       <c r="E15" s="48"/>
       <c r="F15" s="44"/>
@@ -3455,31 +3524,37 @@
       <c r="H15" s="46"/>
       <c r="I15" s="48"/>
       <c r="J15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="L15" s="25"/>
     </row>
     <row r="16" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="44"/>
       <c r="E16" s="48"/>
       <c r="F16" s="44"/>
       <c r="G16" s="48"/>
       <c r="H16" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="J16" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="50"/>
+        <v>63</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>96</v>
+      </c>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
-      <c r="C17" s="74"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="45"/>
       <c r="E17" s="48"/>
       <c r="F17" s="45"/>
@@ -3491,106 +3566,122 @@
       <c r="L17" s="25"/>
     </row>
     <row r="18" spans="2:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
-      <c r="C18" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="117"/>
-      <c r="H18" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="120"/>
-      <c r="J18" s="116" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="121"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="117"/>
+      <c r="J18" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="108"/>
       <c r="L18" s="34"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="70"/>
-      <c r="C19" s="82"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="H19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="J19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="L19" s="35"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="115"/>
-      <c r="J20" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="124"/>
+      <c r="B20" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="110"/>
+      <c r="F20" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="110"/>
+      <c r="H20" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="110"/>
+      <c r="J20" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="111"/>
       <c r="L20" s="25"/>
     </row>
     <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="112"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="F21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="H21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="J21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="L21" s="25"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="113"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="14"/>
       <c r="E22" s="58"/>
       <c r="F22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="H22" s="52"/>
       <c r="I22" s="58"/>
       <c r="J22" s="52"/>
@@ -3598,54 +3689,62 @@
       <c r="L22" s="25"/>
     </row>
     <row r="23" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="87"/>
-      <c r="H23" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="126"/>
+      <c r="B23" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="114"/>
+      <c r="F23" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="114"/>
+      <c r="H23" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="114"/>
+      <c r="J23" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="112"/>
       <c r="L23" s="25"/>
     </row>
     <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69"/>
-      <c r="C24" s="81"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="H24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="J24" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="L24" s="25"/>
     </row>
     <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="123"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="45"/>
       <c r="E25" s="48"/>
       <c r="F25" s="45"/>
@@ -3653,58 +3752,64 @@
       <c r="H25" s="45"/>
       <c r="I25" s="48"/>
       <c r="J25" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="L25" s="25"/>
     </row>
     <row r="26" spans="2:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
-      <c r="C26" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="84"/>
-      <c r="J26" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="77"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="95"/>
+      <c r="F26" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="95"/>
+      <c r="H26" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="95"/>
+      <c r="J26" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="143"/>
       <c r="L26" s="25"/>
     </row>
     <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="F27" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="H27" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="28" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="123"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="45"/>
       <c r="E28" s="48"/>
       <c r="F28" s="45"/>
@@ -3712,64 +3817,74 @@
       <c r="H28" s="45"/>
       <c r="I28" s="48"/>
       <c r="J28" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="25"/>
     </row>
     <row r="29" spans="2:14" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="69"/>
-      <c r="C29" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="85"/>
-      <c r="H29" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="77"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="142"/>
+      <c r="F29" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="118"/>
+      <c r="H29" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="142"/>
+      <c r="J29" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="143"/>
       <c r="L29" s="25"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="F30" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="H30" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="J30" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="L30" s="25"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="F31" s="53"/>
       <c r="G31" s="48"/>
       <c r="H31" s="42"/>
@@ -3780,12 +3895,14 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="69"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="F32" s="53"/>
       <c r="G32" s="48"/>
       <c r="H32" s="42"/>
@@ -3796,12 +3913,14 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="F33" s="53"/>
       <c r="G33" s="48"/>
       <c r="H33" s="43"/>
@@ -3812,311 +3931,339 @@
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="97"/>
-      <c r="F34" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="76"/>
-      <c r="H34" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="98"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="98"/>
+      <c r="F34" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="142"/>
+      <c r="H34" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="118"/>
+      <c r="J34" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="119"/>
       <c r="L34" s="25"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="F35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="H35" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="J35" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="L35" s="25"/>
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="70"/>
-      <c r="C36" s="82"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="54"/>
       <c r="E36" s="61"/>
       <c r="F36" s="54"/>
       <c r="G36" s="65"/>
       <c r="H36" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="J36" s="54"/>
       <c r="K36" s="62"/>
       <c r="L36" s="25"/>
     </row>
     <row r="37" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="79"/>
-      <c r="J37" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" s="99"/>
+      <c r="B37" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="125"/>
+      <c r="F37" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="125"/>
+      <c r="H37" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="125"/>
+      <c r="J37" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="121"/>
       <c r="L37" s="36"/>
     </row>
     <row r="38" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="112"/>
-      <c r="C38" s="134"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="F38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="H38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="J38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="L38" s="36"/>
     </row>
     <row r="39" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="112"/>
-      <c r="C39" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="107"/>
-      <c r="J39" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39" s="103"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="123"/>
+      <c r="F39" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="123"/>
+      <c r="H39" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="130"/>
+      <c r="J39" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="126"/>
       <c r="L39" s="1"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="112"/>
-      <c r="C40" s="109"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="F40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="H40" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="J40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="112"/>
-      <c r="C41" s="134"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="21"/>
       <c r="E41" s="57"/>
       <c r="F41" s="21"/>
       <c r="G41" s="57"/>
       <c r="H41" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="J41" s="21"/>
       <c r="K41" s="64"/>
       <c r="L41" s="1"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="112"/>
-      <c r="C42" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="101"/>
-      <c r="H42" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="105"/>
-      <c r="J42" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="104"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="123"/>
+      <c r="F42" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="123"/>
+      <c r="H42" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="128"/>
+      <c r="J42" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="127"/>
       <c r="L42" s="25"/>
     </row>
     <row r="43" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="113"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G43" s="19"/>
       <c r="H43" s="17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="25"/>
     </row>
     <row r="44" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="122" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="87"/>
-      <c r="J44" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" s="93"/>
+      <c r="B44" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="114"/>
+      <c r="F44" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="114"/>
+      <c r="H44" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="114"/>
+      <c r="J44" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="133"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69"/>
-      <c r="C45" s="123"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K45" s="23"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="2:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="138" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="92"/>
-      <c r="H46" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="88"/>
-      <c r="J46" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="K46" s="94"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="137"/>
+      <c r="F46" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="132"/>
+      <c r="H46" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="137"/>
+      <c r="J46" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="134"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="139"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="28" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K47" s="18"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="70"/>
-      <c r="C48" s="140"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="93"/>
       <c r="D48" s="54"/>
       <c r="E48" s="61"/>
       <c r="F48" s="32" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="56"/>
@@ -4126,113 +4273,53 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="79"/>
-      <c r="J49" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="K49" s="96"/>
+      <c r="B49" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="125"/>
+      <c r="F49" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="125"/>
+      <c r="H49" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="125"/>
+      <c r="J49" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="136"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="113"/>
-      <c r="C50" s="137"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H44:I44"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D29:E29"/>
@@ -4249,8 +4336,68 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:K28 G14 E14 E19 G19 I19 K19 I16 G21:G22 K14:K16 E21 I21 K21 I24 G24 E24 E27 G27 G30 E35 I35:I36 G40 E40 K35 K40 E47 I47 E30:E33 G35 I38 K38 G38 E38 I40:I41 K43 I43 G43 E43 E45 E50 G50 G47:G48 I50 K50 K45 I45 G45 I30 K30 I27 K24:K25 I14 K47" xr:uid="{4F850B23-72D3-42CE-AFF7-E77C4B7FF2EF}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
@@ -4273,8 +4420,8 @@
   </sheetPr>
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4282,45 +4429,45 @@
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>4</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,B2:G2)</f>
-        <v>Pillar,Subpillar,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers</v>
+        <v>DRM Pillar,Thematic Area,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D3" s="39">
         <f>IF('Diagnostic Questions'!E14="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f>IF('Diagnostic Questions'!G14="Yes",1,0)</f>
@@ -4328,7 +4475,7 @@
       </c>
       <c r="F3" s="39">
         <f>0.5*IF('Diagnostic Questions'!I14="Yes",1,0) + 0.5*IF('Diagnostic Questions'!I16="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="39">
         <f>ROUND(0.3333*IF('Diagnostic Questions'!K14="Yes",1,0) + 0.3333*IF('Diagnostic Questions'!K15="Yes",1,0) + 0.3333*IF('Diagnostic Questions'!K16="Yes",1,0),2)</f>
@@ -4336,15 +4483,15 @@
       </c>
       <c r="I3" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,B3:G3)</f>
-        <v>Legal and Institutional DRM Framework,DRM policies and institutions,0,0,0,0</v>
+        <v>Legal and Institutional DRM Framework,DRM policies and institutions,1,0,1,0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D4" s="39">
         <f>IF('Diagnostic Questions'!E19="Yes",1,0)</f>
@@ -4356,23 +4503,23 @@
       </c>
       <c r="F4" s="39">
         <f>IF('Diagnostic Questions'!I19="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="39">
         <f>IF('Diagnostic Questions'!K19="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,B4:G4)</f>
-        <v>Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,0,0</v>
+        <v>Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,1,1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D5" s="39">
         <f>IF('Diagnostic Questions'!E21="Yes",1,0)</f>
@@ -4380,7 +4527,7 @@
       </c>
       <c r="E5" s="39">
         <f>0.5*IF('Diagnostic Questions'!G21="Yes",1,0) + 0.5*IF('Diagnostic Questions'!G22="Yes",1,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="39">
         <f>IF('Diagnostic Questions'!I21="Yes",1,0)</f>
@@ -4388,47 +4535,47 @@
       </c>
       <c r="G5" s="39">
         <f>IF('Diagnostic Questions'!K21="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ref="I5:I14" si="0">_xlfn.TEXTJOIN(",",FALSE,B5:G5)</f>
-        <v>Risk Identification,Risk Identification,0,0,0,0</v>
+        <v>Risk Identification,Risk identification,0,0.5,0,1</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D6" s="39">
         <f>IF('Diagnostic Questions'!E24="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="39">
         <f>IF('Diagnostic Questions'!G24="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="39">
         <f>IF('Diagnostic Questions'!I24="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="39">
         <f>0.5*IF('Diagnostic Questions'!K24="Yes",1,0) + 0.5*IF('Diagnostic Questions'!K25="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>Risk Reduction,Territorial and urban planning,0,0,0,0</v>
+        <v>Risk Reduction,Territorial and urban planning,1,1,1,1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D7" s="39">
         <f>IF('Diagnostic Questions'!E27="Yes",1,0)</f>
@@ -4453,42 +4600,42 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D8" s="39">
         <f>0.5*(0.25*IF('Diagnostic Questions'!E30="Yes",1,0)+0.25*IF('Diagnostic Questions'!E31="Yes",1,0)+0.25*IF('Diagnostic Questions'!E32="Yes",1,0)+0.25*IF('Diagnostic Questions'!E33="Yes",1,0))+0.5*IF('Diagnostic Questions'!E35="Yes",1,0)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="E8" s="39">
         <f>0.5*IF('Diagnostic Questions'!G30="Yes",1,0)+0.5*IF('Diagnostic Questions'!G35="Yes",1,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="39">
         <f>0.5*IF('Diagnostic Questions'!I30="Yes",1,0)+0.5*(0.5*IF('Diagnostic Questions'!I35="Yes",1,0)+0.5*IF('Diagnostic Questions'!I36="Yes",1,0))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="39">
         <f>0.5*IF('Diagnostic Questions'!K30="Yes",1,0)+0.5*IF('Diagnostic Questions'!K35="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>Risk Reduction,Sector-specific risk reduction measures,0,0,0,0</v>
+        <v>Risk Reduction,Sector-specific risk reduction measures,0.875,0.5,0.5,1</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D9" s="39">
         <f>IF('Diagnostic Questions'!E38="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="39">
         <f>IF('Diagnostic Questions'!G38="Yes",1,0)</f>
@@ -4496,23 +4643,23 @@
       </c>
       <c r="F9" s="39">
         <f>IF('Diagnostic Questions'!I38="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="39">
         <f>IF('Diagnostic Questions'!K38="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>Preparedness,Early Warning Systems (EWS),0,0,0,0</v>
+        <v>Preparedness,Early warning systems,1,0,1,1</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D10" s="39">
         <f>IF('Diagnostic Questions'!E40="Yes",1,0)</f>
@@ -4524,23 +4671,23 @@
       </c>
       <c r="F10" s="39">
         <f>0.5*IF('Diagnostic Questions'!I40="Yes",1,0) + 0.5*IF('Diagnostic Questions'!I41="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="39">
         <f>IF('Diagnostic Questions'!K40="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>Preparedness,Emergency Preparedness and Response (EP&amp;R),0,0,0,0</v>
+        <v>Preparedness,Emergency preparedness and response,0,0,1,1</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="39" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D11" s="39">
         <f>IF('Diagnostic Questions'!E43="Yes",1,0)</f>
@@ -4560,15 +4707,15 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>Preparedness,Adaptive Social Protection (ASP),0,0,0,0</v>
+        <v>Preparedness,Adaptive social protection,0,0,0,0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D12" s="39">
         <f>IF('Diagnostic Questions'!E45="Yes",1,0)</f>
@@ -4593,10 +4740,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" s="39">
         <f>IF('Diagnostic Questions'!E47="Yes",1,0)</f>
@@ -4616,15 +4763,15 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>Financial Protection,Disaster Risk Financing (DRF) strategies and instruments,0,0,0,0</v>
+        <v>Financial Protection,DRF strategies and instruments,0,0,0,0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="39">
         <f>IF('Diagnostic Questions'!E50="Yes",1,0)</f>
@@ -4644,7 +4791,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>Resilient Reconstruction,Resilient Reconstruction,0,0,0,0</v>
+        <v>Resilient Reconstruction,Resilient reconstruction,0,0,0,0</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62bed0b45625b526/World_Bank_DRM/Cat_DDO_DRM_Diagnostic_Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1609" documentId="8_{897DEB52-8293-498E-AAF6-D0CE94892166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDDBB970-0B64-4DE6-B91C-21E2C866740E}"/>
+  <xr:revisionPtr revIDLastSave="1640" documentId="8_{897DEB52-8293-498E-AAF6-D0CE94892166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598D8B80-4FD8-4E53-9B77-942B9EE6EEF2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
+    <workbookView xWindow="30612" yWindow="4248" windowWidth="23256" windowHeight="12456" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagnostic Questions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>DRM Pillar</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Have guidelines or regulations to conduct post-disaster damage and needs assessments been developed and approved?</t>
   </si>
   <si>
-    <t>Do laws and regulations clearly define institutional responsibilities and mandates for producing, acquiring, and managing risk information (e.g., hazard information, vulnerability assessments, risk profiles, historical disaster databases)?</t>
-  </si>
-  <si>
     <t>Do at least half of the essential government entities use existing risk information to inform their sectoral planning processes?</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t xml:space="preserve">Do official guidelines exist defining disaster and climate risk screening methodologies for new public investment projects? </t>
   </si>
   <si>
-    <t>Do the legal framework and institutional arrangements for water supply and sanitation in urban areas take flood risk into account?</t>
-  </si>
-  <si>
     <t>Are there legal and institutional arrangements for integrated water resources management (IWRM) that explicitly incorporate flood and drought risk considerations?</t>
   </si>
   <si>
@@ -406,83 +400,37 @@
     <t>During the most recent disaster or climate-related shock, was support promptly provided to the population through social‐protection programs?  (e.g., cash transfers in the case of drought)?</t>
   </si>
   <si>
-    <r>
-      <t>Over the past 4 years, has the $ amount of financing that can be mobilized through sovereign risk financing instruments increased?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Please provide numbers when available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Since the adoption of the DRM legal framework: 
+    <t>sheet password is 1234</t>
+  </si>
+  <si>
+    <t>Since the adoption of the DRM legal framework: 
 (1) have DRM policy instruments (e.g., DRM strategies or policies) been officially approved? 
-(2)  have DRM-related regulations (e.g., rules on the structure or functions of the DRM agency) been officially approved? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">If yes, please specify which policy document(s) and/or regulation(s). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Is there a reporting or monitoring mechanism to track progress toward DRM and/or CCA targets included in the National Development Strategies?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> If yes, please report those progress</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Do key fiscal policy documents (e.g., the medium-term fiscal framework or fiscal risk statements) include quantified assessments of disaster risks? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>If yes, please specify which document(s).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Are there sovereign risk financing instruments (e.g., disaster or emergency funds, contingent loans, insurance or other risk transfer mechanisms) in place to manage the financial impact of disasters and climate-related shocks? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">If yes, please list them. </t>
-    </r>
+(2)  have DRM-related regulations (e.g., rules on the structure or functions of the DRM agency) been officially approved?</t>
+  </si>
+  <si>
+    <t>Is there a reporting or monitoring mechanism to track progress toward DRM and/or CCA targets included in the National Development Strategies?</t>
+  </si>
+  <si>
+    <t>Do key fiscal policy documents (e.g., the medium-term fiscal framework or fiscal risk statements) include quantified assessments of disaster risks?</t>
+  </si>
+  <si>
+    <t>Over the past 4 years, has the $ amount of financing that can be mobilized through sovereign risk financing instruments increased?</t>
+  </si>
+  <si>
+    <t>Are there sovereign risk financing instruments (e.g., disaster or emergency funds, contingent loans, insurance or other risk transfer mechanisms) in place to manage the financial impact of disasters and climate-related shocks?</t>
+  </si>
+  <si>
+    <t>Do laws and regulations clearly define institutional responsibilities and mandates for producing, acquiring, and managing geospatial information, including risk information (e.g., hazard information, vulnerability assessments, risk profiles, historical disaster databases)?</t>
+  </si>
+  <si>
+    <t>Are there legal and institutional arrangements for water supply and sanitation in urban areas that take flood risk into account?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,12 +623,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1105,7 +1047,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,84 +1065,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,94 +1082,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1308,222 +1094,504 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1704,7 +1772,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.875</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1848,7 +1916,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2022,7 +2090,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3327,8 +3395,8 @@
   </sheetPr>
   <dimension ref="B2:AU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3337,93 +3405,93 @@
     <col min="2" max="2" width="22.5546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="41.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="54.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="65" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="7" customWidth="1"/>
     <col min="10" max="10" width="55.5546875" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="7" customWidth="1"/>
     <col min="12" max="12" width="38.88671875" customWidth="1"/>
     <col min="13" max="14" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="47" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:47" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="68" t="s">
-        <v>83</v>
+      <c r="B2" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:47" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="B4" s="70" t="s">
-        <v>81</v>
+      <c r="B4" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:47" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="2:47" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="78"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="71" t="str">
+        <v>86</v>
+      </c>
+      <c r="E7" s="19" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,'Summary (to be hidden)'!I2:I14)</f>
-        <v>DRM Pillar,Thematic Area,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers;Legal and Institutional DRM Framework,DRM policies and institutions,1,0,1,0;Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,1,1;Risk Identification,Risk identification,0,0.5,0,1;Risk Reduction,Territorial and urban planning,1,1,1,1;Risk Reduction,Public investment at the central level,0,0,0,0;Risk Reduction,Sector-specific risk reduction measures,0.875,0.5,0.5,1;Preparedness,Early warning systems,1,0,1,1;Preparedness,Emergency preparedness and response,0,0,1,1;Preparedness,Adaptive social protection,0,0,0,0;Financial Protection,Fiscal risk management,0,0,0,0;Financial Protection,DRF strategies and instruments,0,0,0,0;Resilient Reconstruction,Resilient reconstruction,0,0,0,0</v>
+        <v>DRM Pillar,Thematic Area,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers;Legal and Institutional DRM Framework,DRM policies and institutions,1,1,1,0;Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,1,1;Risk Identification,Risk identification,0,0.5,0,1;Risk Reduction,Territorial and urban planning,1,1,1,1;Risk Reduction,Public investment at the central level,0,0,0,0;Risk Reduction,Sector-specific risk reduction measures,0.8,0.5,1,1;Preparedness,Early warning systems,1,0,1,1;Preparedness,Emergency preparedness and response,0,0,1,1;Preparedness,Adaptive social protection,0,0,0,0;Financial Protection,Fiscal risk management,0,0,0,0;Financial Protection,DRF strategies and instruments,0,0,0,0;Resilient Reconstruction,Resilient reconstruction,0,0,0,0</v>
       </c>
     </row>
     <row r="9" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="67">
+        <v>83</v>
+      </c>
+      <c r="E9" s="15">
         <f>64-(COUNTIF('Diagnostic Questions'!D12:K50,"YES")+COUNTIF('Diagnostic Questions'!D12:K50,"NO"))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:47" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="69" t="s">
-        <v>68</v>
+      <c r="B10" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:47" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="101" t="s">
+      <c r="C12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="103"/>
-      <c r="H12" s="101" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="101" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="33"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3461,865 +3529,928 @@
       <c r="AU12" s="2"/>
     </row>
     <row r="13" spans="2:47" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="144" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="99" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
+      <c r="C18" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="59"/>
+      <c r="L18" s="10"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="69"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="80"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="41" t="s">
+      <c r="E23" s="84"/>
+      <c r="F23" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="84"/>
+      <c r="H23" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="84"/>
+      <c r="J23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="85"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="36"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="26" t="s">
+      <c r="E24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="26" t="s">
+      <c r="G24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="36"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="K25" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="2:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="36"/>
+      <c r="C26" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="91"/>
+      <c r="H26" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="91"/>
+      <c r="J26" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="93"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="36"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="73"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="49" t="s">
+      <c r="K28" s="89"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:14" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
+      <c r="C29" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="96"/>
+      <c r="H29" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="95"/>
+      <c r="J29" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="93"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="97"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="2:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="2:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="73"/>
-      <c r="C18" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="117"/>
-      <c r="J18" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="108"/>
-      <c r="L18" s="34"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="74"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="27" t="s">
+      <c r="E32" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="97"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="36"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="97"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="2:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="102"/>
+      <c r="F34" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="95"/>
+      <c r="H34" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="96"/>
+      <c r="J34" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="103"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="36"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="27" t="s">
+      <c r="E35" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="27" t="s">
+      <c r="G35" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="27" t="s">
+      <c r="K35" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" s="106"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="112"/>
+      <c r="F37" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="112"/>
+      <c r="H37" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="112"/>
+      <c r="J37" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="113"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="70"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="35"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="110"/>
-      <c r="F20" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="111"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="81"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="9" t="s">
+      <c r="E38" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="G38" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="I38" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="80"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="114"/>
-      <c r="J23" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="112"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="2:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="73"/>
-      <c r="C26" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="95"/>
-      <c r="J26" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="143"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="73"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="25"/>
-    </row>
-    <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="73"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" spans="2:14" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="142"/>
-      <c r="F29" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="118"/>
-      <c r="H29" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="142"/>
-      <c r="J29" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="143"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="73"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="73"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="73"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="2:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="73"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97" t="s">
+      <c r="K38" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="70"/>
+      <c r="C39" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="118"/>
+      <c r="F39" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="118"/>
+      <c r="H39" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="142"/>
-      <c r="H34" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="118"/>
-      <c r="J34" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="119"/>
-      <c r="L34" s="25"/>
-    </row>
-    <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="74"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="125"/>
-      <c r="F37" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="125"/>
-      <c r="H37" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="125"/>
-      <c r="J37" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" s="121"/>
-      <c r="L37" s="36"/>
-    </row>
-    <row r="38" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="81"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38" s="36"/>
-    </row>
-    <row r="39" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="81"/>
-      <c r="C39" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="123"/>
-      <c r="F39" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="123"/>
-      <c r="H39" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="130"/>
-      <c r="J39" s="124" t="s">
+      <c r="I39" s="121"/>
+      <c r="J39" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="126"/>
+      <c r="K39" s="122"/>
       <c r="L39" s="1"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="81"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="13" t="s">
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="13" t="s">
+      <c r="E40" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="G40" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="18" t="s">
-        <v>89</v>
+      <c r="K40" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="81"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="64"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="125"/>
+      <c r="K41" s="127"/>
       <c r="L41" s="1"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="81"/>
-      <c r="C42" s="84" t="s">
+      <c r="B42" s="70"/>
+      <c r="C42" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="122" t="s">
+      <c r="D42" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="123"/>
-      <c r="F42" s="122" t="s">
+      <c r="E42" s="118"/>
+      <c r="F42" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="123"/>
+      <c r="G42" s="118"/>
       <c r="H42" s="128" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I42" s="128"/>
-      <c r="J42" s="122" t="s">
+      <c r="J42" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="127"/>
-      <c r="L42" s="25"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="80"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="16" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="16" t="s">
+      <c r="E43" s="63"/>
+      <c r="F43" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="17" t="s">
+      <c r="G43" s="63"/>
+      <c r="H43" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="16" t="s">
+      <c r="I43" s="63"/>
+      <c r="J43" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="25"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="113" t="s">
+      <c r="E44" s="84"/>
+      <c r="F44" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="114"/>
-      <c r="H44" s="113" t="s">
+      <c r="G44" s="84"/>
+      <c r="H44" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="84"/>
+      <c r="J44" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="132"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="36"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="100"/>
+      <c r="F45" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="100"/>
+      <c r="H45" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="100"/>
+      <c r="J45" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="89"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="2:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="36"/>
+      <c r="C46" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="114"/>
-      <c r="J44" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" s="133"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="73"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="29" t="s">
+      <c r="E46" s="134"/>
+      <c r="F46" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="136"/>
+      <c r="H46" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="134"/>
+      <c r="J46" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="137"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="36"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="29" t="s">
+      <c r="E47" s="41"/>
+      <c r="F47" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="41"/>
+      <c r="H47" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="29" t="s">
+      <c r="I47" s="41"/>
+      <c r="J47" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="29" t="s">
+      <c r="K47" s="42"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="60"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="63"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="112"/>
+      <c r="F49" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="112"/>
+      <c r="H49" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="112"/>
+      <c r="J49" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="144"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="75"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="73"/>
-      <c r="C46" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="132"/>
-      <c r="H46" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="I46" s="137"/>
-      <c r="J46" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="134"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="73"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="26" t="s">
+      <c r="E50" s="63"/>
+      <c r="F50" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="55" t="s">
+      <c r="G50" s="63"/>
+      <c r="H50" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="26" t="s">
+      <c r="I50" s="63"/>
+      <c r="J50" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="74"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="125"/>
-      <c r="F49" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="125"/>
-      <c r="H49" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="125"/>
-      <c r="J49" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="136"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="80"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="19"/>
-      <c r="J50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="20"/>
+      <c r="K50" s="64"/>
       <c r="L50" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="qHxMlw49t7cqo6EtZn1JiBEwhCFMVlVf09HtocEiB3234myTQ3Iz4EJJRZvPPi8M/sZ/XjG+4AZMQVCjHtmYJw==" saltValue="ptowAI5jvPGgMLBWmqqr8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="76">
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H44:I44"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D29:E29"/>
@@ -4336,66 +4467,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:K28 G14 E14 E19 G19 I19 K19 I16 G21:G22 K14:K16 E21 I21 K21 I24 G24 E24 E27 G27 G30 E35 I35:I36 G40 E40 K35 K40 E47 I47 E30:E33 G35 I38 K38 G38 E38 I40:I41 K43 I43 G43 E43 E45 E50 G50 G47:G48 I50 K50 K45 I45 G45 I30 K30 I27 K24:K25 I14 K47" xr:uid="{4F850B23-72D3-42CE-AFF7-E77C4B7FF2EF}">
@@ -4418,10 +4489,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4435,22 +4506,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="str">
@@ -4459,53 +4530,53 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="39">
+      <c r="B3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="13">
         <f>IF('Diagnostic Questions'!E14="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="E3">
         <f>IF('Diagnostic Questions'!G14="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="39">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
         <f>0.5*IF('Diagnostic Questions'!I14="Yes",1,0) + 0.5*IF('Diagnostic Questions'!I16="Yes",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="13">
         <f>ROUND(0.3333*IF('Diagnostic Questions'!K14="Yes",1,0) + 0.3333*IF('Diagnostic Questions'!K15="Yes",1,0) + 0.3333*IF('Diagnostic Questions'!K16="Yes",1,0),2)</f>
         <v>0</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,B3:G3)</f>
-        <v>Legal and Institutional DRM Framework,DRM policies and institutions,1,0,1,0</v>
+        <v>Legal and Institutional DRM Framework,DRM policies and institutions,1,1,1,0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="39">
+      <c r="B4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="13">
         <f>IF('Diagnostic Questions'!E19="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="13">
         <f>IF('Diagnostic Questions'!G19="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="13">
         <f>IF('Diagnostic Questions'!I19="Yes",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="13">
         <f>IF('Diagnostic Questions'!K19="Yes",1,0)</f>
         <v>1</v>
       </c>
@@ -4515,25 +4586,25 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="39">
+      <c r="B5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="13">
         <f>IF('Diagnostic Questions'!E21="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="13">
         <f>0.5*IF('Diagnostic Questions'!G21="Yes",1,0) + 0.5*IF('Diagnostic Questions'!G22="Yes",1,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="13">
         <f>IF('Diagnostic Questions'!I21="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="13">
         <f>IF('Diagnostic Questions'!K21="Yes",1,0)</f>
         <v>1</v>
       </c>
@@ -4543,25 +4614,25 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="39">
+      <c r="B6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="13">
         <f>IF('Diagnostic Questions'!E24="Yes",1,0)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="13">
         <f>IF('Diagnostic Questions'!G24="Yes",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="13">
         <f>IF('Diagnostic Questions'!I24="Yes",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="13">
         <f>0.5*IF('Diagnostic Questions'!K24="Yes",1,0) + 0.5*IF('Diagnostic Questions'!K25="Yes",1,0)</f>
         <v>1</v>
       </c>
@@ -4571,25 +4642,25 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="39">
+      <c r="B7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="13">
         <f>IF('Diagnostic Questions'!E27="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="13">
         <f>IF('Diagnostic Questions'!G27="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="13">
         <f>IF('Diagnostic Questions'!I27="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="13">
         <f>0.5*IF('Diagnostic Questions'!K27="Yes",1,0) + 0.5*IF('Diagnostic Questions'!K28="Yes",1,0)</f>
         <v>0</v>
       </c>
@@ -4599,53 +4670,53 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="39">
-        <f>0.5*(0.25*IF('Diagnostic Questions'!E30="Yes",1,0)+0.25*IF('Diagnostic Questions'!E31="Yes",1,0)+0.25*IF('Diagnostic Questions'!E32="Yes",1,0)+0.25*IF('Diagnostic Questions'!E33="Yes",1,0))+0.5*IF('Diagnostic Questions'!E35="Yes",1,0)</f>
-        <v>0.875</v>
-      </c>
-      <c r="E8" s="39">
+      <c r="B8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="13">
+        <f>0.2*IF('Diagnostic Questions'!E30="Yes",1,0)+0.2*IF('Diagnostic Questions'!E31="Yes",1,0)+0.2*IF('Diagnostic Questions'!E32="Yes",1,0)+0.2*IF('Diagnostic Questions'!E33="Yes",1,0)+0.2*IF('Diagnostic Questions'!E35="Yes",1,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="13">
         <f>0.5*IF('Diagnostic Questions'!G30="Yes",1,0)+0.5*IF('Diagnostic Questions'!G35="Yes",1,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F8" s="39">
-        <f>0.5*IF('Diagnostic Questions'!I30="Yes",1,0)+0.5*(0.5*IF('Diagnostic Questions'!I35="Yes",1,0)+0.5*IF('Diagnostic Questions'!I36="Yes",1,0))</f>
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="39">
+      <c r="F8" s="13">
+        <f>ROUND(0.3333*IF('Diagnostic Questions'!I30="Yes",1,0)+0.3333*IF('Diagnostic Questions'!I35="Yes",1,0)+0.3333*IF('Diagnostic Questions'!I36="Yes",1,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
         <f>0.5*IF('Diagnostic Questions'!K30="Yes",1,0)+0.5*IF('Diagnostic Questions'!K35="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>Risk Reduction,Sector-specific risk reduction measures,0.875,0.5,0.5,1</v>
+        <v>Risk Reduction,Sector-specific risk reduction measures,0.8,0.5,1,1</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="B9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="13">
         <f>IF('Diagnostic Questions'!E38="Yes",1,0)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="13">
         <f>IF('Diagnostic Questions'!G38="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="13">
         <f>IF('Diagnostic Questions'!I38="Yes",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="13">
         <f>IF('Diagnostic Questions'!K38="Yes",1,0)</f>
         <v>1</v>
       </c>
@@ -4655,25 +4726,25 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="B10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="13">
         <f>IF('Diagnostic Questions'!E40="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="13">
         <f>IF('Diagnostic Questions'!G40="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="13">
         <f>0.5*IF('Diagnostic Questions'!I40="Yes",1,0) + 0.5*IF('Diagnostic Questions'!I41="Yes",1,0)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="13">
         <f>IF('Diagnostic Questions'!K40="Yes",1,0)</f>
         <v>1</v>
       </c>
@@ -4683,25 +4754,25 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="B11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="13">
         <f>IF('Diagnostic Questions'!E43="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="13">
         <f>IF('Diagnostic Questions'!G43="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="13">
         <f>IF('Diagnostic Questions'!I43="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="13">
         <f>IF('Diagnostic Questions'!K43="Yes",1,0)</f>
         <v>0</v>
       </c>
@@ -4711,25 +4782,25 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="39">
+      <c r="B12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="13">
         <f>IF('Diagnostic Questions'!E45="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="13">
         <f>IF('Diagnostic Questions'!G45="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="13">
         <f>IF('Diagnostic Questions'!I45="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="13">
         <f>IF('Diagnostic Questions'!K45="Yes",1,0)</f>
         <v>0</v>
       </c>
@@ -4739,25 +4810,25 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="39">
+      <c r="B13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="13">
         <f>IF('Diagnostic Questions'!E47="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="13">
         <f>0.5*IF('Diagnostic Questions'!G47="Yes",1,0)+0.5*IF('Diagnostic Questions'!G48="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="13">
         <f>IF('Diagnostic Questions'!I47="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="13">
         <f>IF('Diagnostic Questions'!K47="Yes",1,0)</f>
         <v>0</v>
       </c>
@@ -4767,25 +4838,25 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="B14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="13">
         <f>IF('Diagnostic Questions'!E50="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="13">
         <f>IF('Diagnostic Questions'!G50="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="13">
         <f>IF('Diagnostic Questions'!I50="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="13">
         <f>IF('Diagnostic Questions'!K50="Yes",1,0)</f>
         <v>0</v>
       </c>
@@ -4796,6 +4867,14 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqnmu\OneDrive\World_Bank_DRM\Cat_DDO_DRM_Diagnostic_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783161E0-90EF-4614-AEBE-8F830DC54AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B997EEB-7916-4D71-823D-9183477A5203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="4248" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Diagnostic Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary (to be hidden)" sheetId="2" r:id="rId2"/>
+    <sheet name="DRM Diagnostic" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary (to be hidden)" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>DRM Pillar</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Thematic Area</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>DRF strategies and instruments</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
   </si>
   <si>
     <t>Resilient reconstruction</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Is there a legal framework (e.g., a DRM law or other instruments) defining distinct mandates for disaster risk reduction and emergency management?</t>
@@ -1317,12 +1311,232 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1341,10 +1555,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1353,18 +1563,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1373,10 +1571,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1389,207 +1583,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1943,22 +1937,20 @@
   </sheetPr>
   <dimension ref="B2:AU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="49.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="54.5546875" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="65" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="55.5546875" customWidth="1"/>
+    <col min="10" max="10" width="57.77734375" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" style="7" customWidth="1"/>
     <col min="12" max="12" width="38.88671875" customWidth="1"/>
     <col min="13" max="14" width="36.5546875" bestFit="1" customWidth="1"/>
@@ -1982,15 +1974,15 @@
       </c>
     </row>
     <row r="6" spans="2:47" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79" t="s">
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="79"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
@@ -1998,7 +1990,7 @@
       </c>
       <c r="E7" s="19" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,'Summary (to be hidden)'!I2:I14)</f>
-        <v>DRM Pillar,Thematic Area,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers;Legal and Institutional DRM Framework,DRM policies and institutions,1,1,1,0;Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,1,1;Risk Identification,Risk identification,0,0.5,0,1;Risk Reduction,Territorial and urban planning,1,1,1,1;Risk Reduction,Public investment at the central level,0,0,0,0;Risk Reduction,Sector-specific risk reduction measures,0.8,0.5,1,1;Preparedness,Early warning systems,1,0,1,1;Preparedness,Emergency preparedness and response,0,0,1,1;Preparedness,Adaptive social protection,0,0,0,0;Financial Protection,Fiscal risk management,0,0,0,0;Financial Protection,DRF strategies and instruments,0,0,0,0;Resilient Reconstruction,Resilient reconstruction,0,0,0,0</v>
+        <v>DRM Pillar,Thematic Area,Legal and institutional set up,Intermediary DRM outputs,Key DRM achievements,Policy enablers;Legal and Institutional DRM Framework,DRM policies and institutions,0,0,0,0;Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,0,0;Risk Identification,Risk identification,0,0,0,0;Risk Reduction,Territorial and urban planning,0,0,0,0;Risk Reduction,Public investment at the central level,0,0,0,0;Risk Reduction,Sector-specific risk reduction measures,0,0,0,0;Preparedness,Early warning systems,0,0,0,0;Preparedness,Emergency preparedness and response,0,0,0,0;Preparedness,Adaptive social protection,0,0,0,0;Financial Protection,Fiscal risk management,0,0,0,0;Financial Protection,DRF strategies and instruments,0,0,0,0;Resilient Reconstruction,Resilient reconstruction,0,0,0,0</v>
       </c>
     </row>
     <row r="9" spans="2:47" x14ac:dyDescent="0.35">
@@ -2006,8 +1998,8 @@
         <v>83</v>
       </c>
       <c r="E9" s="15">
-        <f>64-(COUNTIF('Diagnostic Questions'!D12:K50,"YES")+COUNTIF('Diagnostic Questions'!D12:K50,"NO"))</f>
-        <v>20</v>
+        <f>64-(COUNTIF('DRM Diagnostic'!D12:K50,"YES")+COUNTIF('DRM Diagnostic'!D12:K50,"NO"))</f>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:47" ht="15.6" x14ac:dyDescent="0.3">
@@ -2023,22 +2015,22 @@
       <c r="C12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="102" t="s">
+      <c r="E12" s="129"/>
+      <c r="F12" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="102" t="s">
+      <c r="G12" s="129"/>
+      <c r="H12" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="102" t="s">
+      <c r="I12" s="129"/>
+      <c r="J12" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="103"/>
+      <c r="K12" s="128"/>
       <c r="L12" s="9"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2080,59 +2072,51 @@
       <c r="B13" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="105" t="s">
+      <c r="D13" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="130"/>
+      <c r="F13" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="101"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="132"/>
+      <c r="J13" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="126"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="74"/>
-      <c r="C14" s="141"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>88</v>
-      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="G14" s="26"/>
       <c r="H14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="I14" s="26"/>
       <c r="J14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="K14" s="27"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="74"/>
-      <c r="C15" s="142"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="F15" s="28"/>
@@ -2142,14 +2126,12 @@
       <c r="J15" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="K15" s="27"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="74"/>
-      <c r="C16" s="142"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
       <c r="F16" s="28"/>
@@ -2157,20 +2139,16 @@
       <c r="H16" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="33" t="s">
-        <v>95</v>
-      </c>
+      <c r="K16" s="33"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="2:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="74"/>
-      <c r="C17" s="143"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="34"/>
       <c r="E17" s="29"/>
       <c r="F17" s="34"/>
@@ -2183,123 +2161,105 @@
     </row>
     <row r="18" spans="2:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74"/>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118" t="s">
+      <c r="E18" s="119"/>
+      <c r="F18" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="119"/>
-      <c r="J18" s="109" t="s">
+      <c r="I18" s="121"/>
+      <c r="J18" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="110"/>
+      <c r="K18" s="111"/>
       <c r="L18" s="10"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="75"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>95</v>
-      </c>
+      <c r="E19" s="38"/>
       <c r="F19" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>95</v>
-      </c>
+      <c r="G19" s="38"/>
       <c r="H19" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="38" t="s">
-        <v>88</v>
-      </c>
+      <c r="I19" s="38"/>
       <c r="J19" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="39" t="s">
-        <v>88</v>
-      </c>
+      <c r="K19" s="39"/>
       <c r="L19" s="11"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="111" t="s">
+      <c r="D20" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="115"/>
+      <c r="F20" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="112"/>
-      <c r="H20" s="111" t="s">
+      <c r="G20" s="115"/>
+      <c r="H20" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="111" t="s">
+      <c r="I20" s="115"/>
+      <c r="J20" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="113"/>
+      <c r="K20" s="116"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="E21" s="26"/>
       <c r="F21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="G21" s="26"/>
       <c r="H21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="I21" s="26"/>
       <c r="J21" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="K21" s="27"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="81"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="43"/>
       <c r="E22" s="44"/>
       <c r="F22" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>88</v>
-      </c>
+      <c r="G22" s="38"/>
       <c r="H22" s="46"/>
       <c r="I22" s="44"/>
       <c r="J22" s="46"/>
@@ -2310,59 +2270,51 @@
       <c r="B23" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="115" t="s">
+      <c r="D23" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="115" t="s">
+      <c r="G23" s="92"/>
+      <c r="H23" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="116"/>
-      <c r="J23" s="105" t="s">
+      <c r="I23" s="92"/>
+      <c r="J23" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="114"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="74"/>
-      <c r="C24" s="97"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="E24" s="26"/>
       <c r="F24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="G24" s="26"/>
       <c r="H24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="I24" s="26"/>
       <c r="J24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="K24" s="27"/>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="74"/>
-      <c r="C25" s="88"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="34"/>
       <c r="E25" s="29"/>
       <c r="F25" s="34"/>
@@ -2372,49 +2324,43 @@
       <c r="J25" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="49" t="s">
-        <v>88</v>
-      </c>
+      <c r="K25" s="49"/>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="2:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="74"/>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="96"/>
-      <c r="H26" s="95" t="s">
+      <c r="E26" s="89"/>
+      <c r="F26" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="89"/>
+      <c r="H26" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="96"/>
-      <c r="J26" s="98" t="s">
+      <c r="I26" s="89"/>
+      <c r="J26" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="145"/>
+      <c r="K26" s="82"/>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="74"/>
-      <c r="C27" s="97"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="G27" s="26"/>
       <c r="H27" s="25" t="s">
         <v>7</v>
       </c>
@@ -2427,7 +2373,7 @@
     </row>
     <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="74"/>
-      <c r="C28" s="88"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="34"/>
       <c r="E28" s="29"/>
       <c r="F28" s="34"/>
@@ -2442,67 +2388,57 @@
     </row>
     <row r="29" spans="2:14" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="74"/>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="120" t="s">
+      <c r="E29" s="81"/>
+      <c r="F29" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="120"/>
-      <c r="H29" s="98" t="s">
+      <c r="G29" s="90"/>
+      <c r="H29" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="144"/>
-      <c r="J29" s="98" t="s">
+      <c r="I29" s="81"/>
+      <c r="J29" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="145"/>
+      <c r="K29" s="82"/>
       <c r="L29" s="8"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="74"/>
-      <c r="C30" s="97"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="E30" s="26"/>
       <c r="F30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="G30" s="26"/>
       <c r="H30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="I30" s="26"/>
       <c r="J30" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="K30" s="27"/>
       <c r="L30" s="8"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="74"/>
-      <c r="C31" s="97"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="E31" s="26"/>
       <c r="F31" s="51"/>
       <c r="G31" s="29"/>
       <c r="H31" s="52"/>
@@ -2514,13 +2450,11 @@
     </row>
     <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="74"/>
-      <c r="C32" s="97"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="51"/>
       <c r="G32" s="29"/>
       <c r="H32" s="52"/>
@@ -2532,13 +2466,11 @@
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="74"/>
-      <c r="C33" s="97"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="54" t="s">
-        <v>88</v>
-      </c>
+      <c r="E33" s="54"/>
       <c r="F33" s="51"/>
       <c r="G33" s="29"/>
       <c r="H33" s="55"/>
@@ -2550,57 +2482,49 @@
     </row>
     <row r="34" spans="2:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="74"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="144"/>
-      <c r="H34" s="120" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="145"/>
+      <c r="F34" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="81"/>
+      <c r="H34" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="120"/>
-      <c r="J34" s="98" t="s">
+      <c r="I34" s="90"/>
+      <c r="J34" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="121"/>
+      <c r="K34" s="100"/>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="74"/>
-      <c r="C35" s="97"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="E35" s="26"/>
       <c r="F35" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="G35" s="26"/>
       <c r="H35" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="I35" s="26"/>
       <c r="J35" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="K35" s="27"/>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="75"/>
-      <c r="C36" s="77"/>
+      <c r="C36" s="87"/>
       <c r="D36" s="58"/>
       <c r="E36" s="59"/>
       <c r="F36" s="58"/>
@@ -2608,124 +2532,106 @@
       <c r="H36" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="38" t="s">
-        <v>88</v>
-      </c>
+      <c r="I36" s="38"/>
       <c r="J36" s="58"/>
       <c r="K36" s="62"/>
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="127"/>
-      <c r="F37" s="122" t="s">
+      <c r="E37" s="84"/>
+      <c r="F37" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="127"/>
-      <c r="H37" s="122" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="127"/>
-      <c r="J37" s="122" t="s">
+      <c r="I37" s="84"/>
+      <c r="J37" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="123"/>
+      <c r="K37" s="101"/>
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="82"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
       <c r="D38" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="54" t="s">
-        <v>88</v>
-      </c>
+      <c r="E38" s="54"/>
       <c r="F38" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="54" t="s">
-        <v>95</v>
-      </c>
+      <c r="G38" s="54"/>
       <c r="H38" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="54" t="s">
-        <v>88</v>
-      </c>
+      <c r="I38" s="54"/>
       <c r="J38" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="39" t="s">
-        <v>88</v>
-      </c>
+      <c r="K38" s="39"/>
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="82"/>
-      <c r="C39" s="85" t="s">
+      <c r="B39" s="137"/>
+      <c r="C39" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="124" t="s">
+      <c r="E39" s="103"/>
+      <c r="F39" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="125"/>
-      <c r="H39" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="132"/>
-      <c r="J39" s="126" t="s">
+      <c r="G39" s="103"/>
+      <c r="H39" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="109"/>
+      <c r="J39" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="128"/>
+      <c r="K39" s="105"/>
       <c r="L39" s="1"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="82"/>
-      <c r="C40" s="91"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="E40" s="26"/>
       <c r="F40" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="G40" s="26"/>
       <c r="H40" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="I40" s="26"/>
       <c r="J40" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="K40" s="27"/>
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="82"/>
-      <c r="C41" s="84"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="66"/>
       <c r="E41" s="67"/>
       <c r="F41" s="66"/>
@@ -2733,40 +2639,38 @@
       <c r="H41" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="54" t="s">
-        <v>88</v>
-      </c>
+      <c r="I41" s="54"/>
       <c r="J41" s="66"/>
       <c r="K41" s="68"/>
       <c r="L41" s="1"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="82"/>
-      <c r="C42" s="85" t="s">
+      <c r="B42" s="137"/>
+      <c r="C42" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="124" t="s">
+      <c r="D42" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="125"/>
-      <c r="F42" s="124" t="s">
+      <c r="E42" s="103"/>
+      <c r="F42" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="125"/>
-      <c r="H42" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="130"/>
-      <c r="J42" s="124" t="s">
+      <c r="G42" s="103"/>
+      <c r="H42" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="107"/>
+      <c r="J42" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="129"/>
+      <c r="K42" s="106"/>
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="81"/>
-      <c r="C43" s="86"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="69" t="s">
         <v>7</v>
       </c>
@@ -2789,30 +2693,30 @@
       <c r="B44" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="116"/>
-      <c r="F44" s="115" t="s">
+      <c r="E44" s="92"/>
+      <c r="F44" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="116"/>
-      <c r="H44" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="116"/>
-      <c r="J44" s="115" t="s">
+      <c r="G44" s="92"/>
+      <c r="H44" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="92"/>
+      <c r="J44" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="K44" s="135"/>
+      <c r="K44" s="96"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="74"/>
-      <c r="C45" s="88"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="48" t="s">
         <v>7</v>
       </c>
@@ -2833,30 +2737,30 @@
     </row>
     <row r="46" spans="2:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="74"/>
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="139"/>
-      <c r="F46" s="133" t="s">
+      <c r="D46" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="93"/>
+      <c r="F46" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="134"/>
-      <c r="H46" s="139" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" s="139"/>
-      <c r="J46" s="133" t="s">
+      <c r="G46" s="95"/>
+      <c r="H46" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="93"/>
+      <c r="J46" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="136"/>
+      <c r="K46" s="97"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="74"/>
-      <c r="C47" s="93"/>
+      <c r="C47" s="143"/>
       <c r="D47" s="25" t="s">
         <v>7</v>
       </c>
@@ -2877,7 +2781,7 @@
     </row>
     <row r="48" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="75"/>
-      <c r="C48" s="94"/>
+      <c r="C48" s="144"/>
       <c r="D48" s="58"/>
       <c r="E48" s="59"/>
       <c r="F48" s="71" t="s">
@@ -2891,33 +2795,33 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="122" t="s">
+      <c r="D49" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="127"/>
-      <c r="F49" s="122" t="s">
+      <c r="E49" s="84"/>
+      <c r="F49" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="127"/>
-      <c r="H49" s="122" t="s">
+      <c r="G49" s="84"/>
+      <c r="H49" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="127"/>
-      <c r="J49" s="137" t="s">
+      <c r="I49" s="84"/>
+      <c r="J49" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="138"/>
+      <c r="K49" s="99"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="81"/>
-      <c r="C50" s="90"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="141"/>
       <c r="D50" s="43" t="s">
         <v>7</v>
       </c>
@@ -2937,8 +2841,68 @@
       <c r="L50" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qHxMlw49t7cqo6EtZn1JiBEwhCFMVlVf09HtocEiB3234myTQ3Iz4EJJRZvPPi8M/sZ/XjG+4AZMQVCjHtmYJw==" saltValue="ptowAI5jvPGgMLBWmqqr8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jcaQVtr6ICyvfZG8CdnzDqla+wpPzBO0P7BBCI+k8jRiH7jHIwAm8gbmyPf2HBUjrwZN5KNmZBSOC+RmCJRx0w==" saltValue="2AN9Xe05nMKjoDp+BeQfGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="76">
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H44:I44"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D29:E29"/>
@@ -2955,66 +2919,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:K28 G14 E14 E19 G19 I19 K19 I16 G21:G22 K14:K16 E21 I21 K21 I24 G24 E24 E27 G27 G30 E35 I35:I36 G40 E40 K35 K40 E47 I47 E30:E33 G35 I38 K38 G38 E38 I40:I41 K43 I43 G43 E43 E45 E50 G50 G47:G48 I50 K50 K45 I45 G45 I30 K30 I27 K24:K25 I14 K47" xr:uid="{4F850B23-72D3-42CE-AFF7-E77C4B7FF2EF}">
@@ -3039,9 +2943,7 @@
   </sheetPr>
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3085,24 +2987,24 @@
         <v>68</v>
       </c>
       <c r="D3" s="13">
-        <f>IF('Diagnostic Questions'!E14="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!E14="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f>IF('Diagnostic Questions'!G14="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!G14="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="F3" s="13">
-        <f>0.5*IF('Diagnostic Questions'!I14="Yes",1,0) + 0.5*IF('Diagnostic Questions'!I16="Yes",1,0)</f>
-        <v>1</v>
+        <f>0.5*IF('DRM Diagnostic'!I14="Yes",1,0) + 0.5*IF('DRM Diagnostic'!I16="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="G3" s="13">
-        <f>ROUND(0.3333*IF('Diagnostic Questions'!K14="Yes",1,0) + 0.3333*IF('Diagnostic Questions'!K15="Yes",1,0) + 0.3333*IF('Diagnostic Questions'!K16="Yes",1,0),2)</f>
+        <f>ROUND(0.3333*IF('DRM Diagnostic'!K14="Yes",1,0) + 0.3333*IF('DRM Diagnostic'!K15="Yes",1,0) + 0.3333*IF('DRM Diagnostic'!K16="Yes",1,0),2)</f>
         <v>0</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,B3:G3)</f>
-        <v>Legal and Institutional DRM Framework,DRM policies and institutions,1,1,1,0</v>
+        <v>Legal and Institutional DRM Framework,DRM policies and institutions,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -3113,24 +3015,24 @@
         <v>69</v>
       </c>
       <c r="D4" s="13">
-        <f>IF('Diagnostic Questions'!E19="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!E19="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="13">
-        <f>IF('Diagnostic Questions'!G19="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!G19="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="13">
-        <f>IF('Diagnostic Questions'!I19="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!I19="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="G4" s="13">
-        <f>IF('Diagnostic Questions'!K19="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!K19="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,B4:G4)</f>
-        <v>Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,1,1</v>
+        <v>Legal and Institutional DRM Framework,Mainstreaming DRM into national and sectoral development plans,0,0,0,0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -3138,27 +3040,27 @@
         <v>70</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="13">
-        <f>IF('Diagnostic Questions'!E21="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!E21="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="E5" s="13">
-        <f>0.5*IF('Diagnostic Questions'!G21="Yes",1,0) + 0.5*IF('Diagnostic Questions'!G22="Yes",1,0)</f>
-        <v>0.5</v>
+        <f>0.5*IF('DRM Diagnostic'!G21="Yes",1,0) + 0.5*IF('DRM Diagnostic'!G22="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="F5" s="13">
-        <f>IF('Diagnostic Questions'!I21="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!I21="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="G5" s="13">
-        <f>IF('Diagnostic Questions'!K21="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!K21="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ref="I5:I14" si="0">_xlfn.TEXTJOIN(",",FALSE,B5:G5)</f>
-        <v>Risk Identification,Risk identification,0,0.5,0,1</v>
+        <v>Risk Identification,Risk identification,0,0,0,0</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -3169,24 +3071,24 @@
         <v>71</v>
       </c>
       <c r="D6" s="13">
-        <f>IF('Diagnostic Questions'!E24="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!E24="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="13">
-        <f>IF('Diagnostic Questions'!G24="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!G24="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="F6" s="13">
-        <f>IF('Diagnostic Questions'!I24="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!I24="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="G6" s="13">
-        <f>0.5*IF('Diagnostic Questions'!K24="Yes",1,0) + 0.5*IF('Diagnostic Questions'!K25="Yes",1,0)</f>
-        <v>1</v>
+        <f>0.5*IF('DRM Diagnostic'!K24="Yes",1,0) + 0.5*IF('DRM Diagnostic'!K25="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>Risk Reduction,Territorial and urban planning,1,1,1,1</v>
+        <v>Risk Reduction,Territorial and urban planning,0,0,0,0</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -3197,19 +3099,19 @@
         <v>72</v>
       </c>
       <c r="D7" s="13">
-        <f>IF('Diagnostic Questions'!E27="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!E27="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="13">
-        <f>IF('Diagnostic Questions'!G27="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!G27="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <f>IF('Diagnostic Questions'!I27="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!I27="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="13">
-        <f>0.5*IF('Diagnostic Questions'!K27="Yes",1,0) + 0.5*IF('Diagnostic Questions'!K28="Yes",1,0)</f>
+        <f>0.5*IF('DRM Diagnostic'!K27="Yes",1,0) + 0.5*IF('DRM Diagnostic'!K28="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="I7" t="str">
@@ -3225,24 +3127,24 @@
         <v>73</v>
       </c>
       <c r="D8" s="13">
-        <f>0.2*IF('Diagnostic Questions'!E30="Yes",1,0)+0.2*IF('Diagnostic Questions'!E31="Yes",1,0)+0.2*IF('Diagnostic Questions'!E32="Yes",1,0)+0.2*IF('Diagnostic Questions'!E33="Yes",1,0)+0.2*IF('Diagnostic Questions'!E35="Yes",1,0)</f>
-        <v>0.8</v>
+        <f>0.2*IF('DRM Diagnostic'!E30="Yes",1,0)+0.2*IF('DRM Diagnostic'!E31="Yes",1,0)+0.2*IF('DRM Diagnostic'!E32="Yes",1,0)+0.2*IF('DRM Diagnostic'!E33="Yes",1,0)+0.2*IF('DRM Diagnostic'!E35="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="E8" s="13">
-        <f>0.5*IF('Diagnostic Questions'!G30="Yes",1,0)+0.5*IF('Diagnostic Questions'!G35="Yes",1,0)</f>
-        <v>0.5</v>
+        <f>0.5*IF('DRM Diagnostic'!G30="Yes",1,0)+0.5*IF('DRM Diagnostic'!G35="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="F8" s="13">
-        <f>ROUND(0.3333*IF('Diagnostic Questions'!I30="Yes",1,0)+0.3333*IF('Diagnostic Questions'!I35="Yes",1,0)+0.3333*IF('Diagnostic Questions'!I36="Yes",1,0),2)</f>
-        <v>1</v>
+        <f>ROUND(0.3333*IF('DRM Diagnostic'!I30="Yes",1,0)+0.3333*IF('DRM Diagnostic'!I35="Yes",1,0)+0.3333*IF('DRM Diagnostic'!I36="Yes",1,0),2)</f>
+        <v>0</v>
       </c>
       <c r="G8" s="13">
-        <f>0.5*IF('Diagnostic Questions'!K30="Yes",1,0)+0.5*IF('Diagnostic Questions'!K35="Yes",1,0)</f>
-        <v>1</v>
+        <f>0.5*IF('DRM Diagnostic'!K30="Yes",1,0)+0.5*IF('DRM Diagnostic'!K35="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>Risk Reduction,Sector-specific risk reduction measures,0.8,0.5,1,1</v>
+        <v>Risk Reduction,Sector-specific risk reduction measures,0,0,0,0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -3250,27 +3152,27 @@
         <v>78</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="13">
-        <f>IF('Diagnostic Questions'!E38="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!E38="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="E9" s="13">
-        <f>IF('Diagnostic Questions'!G38="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!G38="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <f>IF('Diagnostic Questions'!I38="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!I38="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="G9" s="13">
-        <f>IF('Diagnostic Questions'!K38="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!K38="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>Preparedness,Early warning systems,1,0,1,1</v>
+        <v>Preparedness,Early warning systems,0,0,0,0</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -3278,27 +3180,27 @@
         <v>78</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="13">
-        <f>IF('Diagnostic Questions'!E40="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!E40="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="13">
-        <f>IF('Diagnostic Questions'!G40="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!G40="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <f>0.5*IF('Diagnostic Questions'!I40="Yes",1,0) + 0.5*IF('Diagnostic Questions'!I41="Yes",1,0)</f>
-        <v>1</v>
+        <f>0.5*IF('DRM Diagnostic'!I40="Yes",1,0) + 0.5*IF('DRM Diagnostic'!I41="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="G10" s="13">
-        <f>IF('Diagnostic Questions'!K40="Yes",1,0)</f>
-        <v>1</v>
+        <f>IF('DRM Diagnostic'!K40="Yes",1,0)</f>
+        <v>0</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>Preparedness,Emergency preparedness and response,0,0,1,1</v>
+        <v>Preparedness,Emergency preparedness and response,0,0,0,0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -3306,22 +3208,22 @@
         <v>78</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="13">
-        <f>IF('Diagnostic Questions'!E43="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!E43="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="E11" s="13">
-        <f>IF('Diagnostic Questions'!G43="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!G43="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <f>IF('Diagnostic Questions'!I43="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!I43="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <f>IF('Diagnostic Questions'!K43="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!K43="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" t="str">
@@ -3337,19 +3239,19 @@
         <v>74</v>
       </c>
       <c r="D12" s="13">
-        <f>IF('Diagnostic Questions'!E45="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!E45="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="E12" s="13">
-        <f>IF('Diagnostic Questions'!G45="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!G45="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <f>IF('Diagnostic Questions'!I45="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!I45="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <f>IF('Diagnostic Questions'!K45="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!K45="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="I12" t="str">
@@ -3362,22 +3264,22 @@
         <v>79</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="13">
-        <f>IF('Diagnostic Questions'!E47="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!E47="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="13">
-        <f>0.5*IF('Diagnostic Questions'!G47="Yes",1,0)+0.5*IF('Diagnostic Questions'!G48="Yes",1,0)</f>
+        <f>0.5*IF('DRM Diagnostic'!G47="Yes",1,0)+0.5*IF('DRM Diagnostic'!G48="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <f>IF('Diagnostic Questions'!I47="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!I47="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <f>IF('Diagnostic Questions'!K47="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!K47="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="I13" t="str">
@@ -3390,22 +3292,22 @@
         <v>75</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="13">
-        <f>IF('Diagnostic Questions'!E50="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!E50="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
-        <f>IF('Diagnostic Questions'!G50="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!G50="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <f>IF('Diagnostic Questions'!I50="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!I50="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="13">
-        <f>IF('Diagnostic Questions'!K50="Yes",1,0)</f>
+        <f>IF('DRM Diagnostic'!K50="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="I14" t="str">
@@ -3418,13 +3320,14 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="guScLaW1msqZa/7T/I6g5INETt6eOkQCzQBLfjTVWBj9GnsPd5IIrA1ePwMv55yqQPYajoQnKigGfNGxKzW7yg==" saltValue="FpjmMvsD1dnzZDAeHqznCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqnmu\OneDrive\World_Bank_DRM\Cat_DDO_DRM_Diagnostic_Dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62bed0b45625b526/World_Bank_DRM/Cat_DDO_DRM_Diagnostic_Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B997EEB-7916-4D71-823D-9183477A5203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9B997EEB-7916-4D71-823D-9183477A5203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC29F9FD-F7BC-4805-84B0-793E980A1272}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
   <si>
     <t>DRM Pillar</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>Are there legal and institutional arrangements for water supply and sanitation in urban areas that take flood risk into account?</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
   </si>
 </sst>
 </file>
@@ -1311,19 +1323,87 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1331,259 +1411,191 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1937,7 +1949,9 @@
   </sheetPr>
   <dimension ref="B2:AU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1974,15 +1988,15 @@
       </c>
     </row>
     <row r="6" spans="2:47" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="134" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="134"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
@@ -2015,22 +2029,22 @@
       <c r="C12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="129"/>
-      <c r="H12" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="129"/>
-      <c r="J12" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="128"/>
+      <c r="D12" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="104"/>
+      <c r="H12" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="104"/>
+      <c r="J12" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="103"/>
       <c r="L12" s="9"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2072,30 +2086,30 @@
       <c r="B13" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="117" t="s">
+      <c r="E13" s="106"/>
+      <c r="F13" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131" t="s">
+      <c r="G13" s="106"/>
+      <c r="H13" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="132"/>
-      <c r="J13" s="125" t="s">
+      <c r="I13" s="108"/>
+      <c r="J13" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="126"/>
+      <c r="K13" s="101"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="74"/>
-      <c r="C14" s="77"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="23" t="s">
         <v>7</v>
       </c>
@@ -2116,7 +2130,7 @@
     </row>
     <row r="15" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="74"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="142"/>
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="F15" s="28"/>
@@ -2131,7 +2145,7 @@
     </row>
     <row r="16" spans="2:47" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="74"/>
-      <c r="C16" s="78"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
       <c r="F16" s="28"/>
@@ -2148,7 +2162,7 @@
     </row>
     <row r="17" spans="2:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="74"/>
-      <c r="C17" s="79"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="34"/>
       <c r="E17" s="29"/>
       <c r="F17" s="34"/>
@@ -2161,31 +2175,31 @@
     </row>
     <row r="18" spans="2:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74"/>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120" t="s">
+      <c r="E18" s="117"/>
+      <c r="F18" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120" t="s">
+      <c r="G18" s="117"/>
+      <c r="H18" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="110" t="s">
+      <c r="I18" s="119"/>
+      <c r="J18" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="111"/>
+      <c r="K18" s="110"/>
       <c r="L18" s="10"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="75"/>
-      <c r="C19" s="87"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="37" t="s">
         <v>7</v>
       </c>
@@ -2206,33 +2220,33 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="114" t="s">
+      <c r="E20" s="112"/>
+      <c r="F20" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="114" t="s">
+      <c r="G20" s="112"/>
+      <c r="H20" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="115"/>
-      <c r="J20" s="114" t="s">
+      <c r="I20" s="112"/>
+      <c r="J20" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="116"/>
+      <c r="K20" s="113"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="137"/>
-      <c r="C21" s="123"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="40" t="s">
         <v>7</v>
       </c>
@@ -2252,8 +2266,8 @@
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="136"/>
-      <c r="C22" s="124"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="43"/>
       <c r="E22" s="44"/>
       <c r="F22" s="45" t="s">
@@ -2270,30 +2284,30 @@
       <c r="B23" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="92"/>
-      <c r="F23" s="91" t="s">
+      <c r="E23" s="116"/>
+      <c r="F23" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="91" t="s">
+      <c r="G23" s="116"/>
+      <c r="H23" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="117" t="s">
+      <c r="I23" s="116"/>
+      <c r="J23" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="114"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="74"/>
-      <c r="C24" s="86"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="25" t="s">
         <v>7</v>
       </c>
@@ -2314,7 +2328,7 @@
     </row>
     <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="74"/>
-      <c r="C25" s="113"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="34"/>
       <c r="E25" s="29"/>
       <c r="F25" s="34"/>
@@ -2329,30 +2343,30 @@
     </row>
     <row r="26" spans="2:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="74"/>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="88" t="s">
+      <c r="E26" s="96"/>
+      <c r="F26" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="88" t="s">
+      <c r="G26" s="96"/>
+      <c r="H26" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="89"/>
-      <c r="J26" s="80" t="s">
+      <c r="I26" s="96"/>
+      <c r="J26" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="82"/>
+      <c r="K26" s="145"/>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="74"/>
-      <c r="C27" s="86"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="25" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2387,7 @@
     </row>
     <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="74"/>
-      <c r="C28" s="113"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="34"/>
       <c r="E28" s="29"/>
       <c r="F28" s="34"/>
@@ -2388,31 +2402,31 @@
     </row>
     <row r="29" spans="2:14" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="74"/>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="90" t="s">
+      <c r="E29" s="144"/>
+      <c r="F29" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="80" t="s">
+      <c r="G29" s="120"/>
+      <c r="H29" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="81"/>
-      <c r="J29" s="80" t="s">
+      <c r="I29" s="144"/>
+      <c r="J29" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="82"/>
+      <c r="K29" s="145"/>
       <c r="L29" s="8"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="74"/>
-      <c r="C30" s="86"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="31" t="s">
         <v>60</v>
       </c>
@@ -2434,7 +2448,7 @@
     </row>
     <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="74"/>
-      <c r="C31" s="86"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="31" t="s">
         <v>61</v>
       </c>
@@ -2450,7 +2464,7 @@
     </row>
     <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="74"/>
-      <c r="C32" s="86"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="31" t="s">
         <v>63</v>
       </c>
@@ -2466,7 +2480,7 @@
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="74"/>
-      <c r="C33" s="86"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="48" t="s">
         <v>64</v>
       </c>
@@ -2482,28 +2496,28 @@
     </row>
     <row r="34" spans="2:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="74"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="80" t="s">
+      <c r="C34" s="97"/>
+      <c r="D34" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="145"/>
-      <c r="F34" s="80" t="s">
+      <c r="E34" s="99"/>
+      <c r="F34" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="81"/>
-      <c r="H34" s="90" t="s">
+      <c r="G34" s="144"/>
+      <c r="H34" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="90"/>
-      <c r="J34" s="80" t="s">
+      <c r="I34" s="120"/>
+      <c r="J34" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="100"/>
+      <c r="K34" s="121"/>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="74"/>
-      <c r="C35" s="86"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="25" t="s">
         <v>7</v>
       </c>
@@ -2524,7 +2538,7 @@
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="75"/>
-      <c r="C36" s="87"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="58"/>
       <c r="E36" s="59"/>
       <c r="F36" s="58"/>
@@ -2538,33 +2552,33 @@
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="135" t="s">
+      <c r="B37" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="83" t="s">
+      <c r="E37" s="127"/>
+      <c r="F37" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="83" t="s">
+      <c r="G37" s="127"/>
+      <c r="H37" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="84"/>
-      <c r="J37" s="83" t="s">
+      <c r="I37" s="127"/>
+      <c r="J37" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="101"/>
+      <c r="K37" s="123"/>
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="137"/>
-      <c r="C38" s="138"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="63" t="s">
         <v>7</v>
       </c>
@@ -2584,32 +2598,32 @@
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="137"/>
-      <c r="C39" s="139" t="s">
+      <c r="B39" s="82"/>
+      <c r="C39" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="103"/>
-      <c r="F39" s="102" t="s">
+      <c r="E39" s="125"/>
+      <c r="F39" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="103"/>
-      <c r="H39" s="108" t="s">
+      <c r="G39" s="125"/>
+      <c r="H39" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="109"/>
-      <c r="J39" s="104" t="s">
+      <c r="I39" s="132"/>
+      <c r="J39" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="105"/>
+      <c r="K39" s="128"/>
       <c r="L39" s="1"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="137"/>
-      <c r="C40" s="123"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="64" t="s">
         <v>7</v>
       </c>
@@ -2630,8 +2644,8 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="137"/>
-      <c r="C41" s="138"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="66"/>
       <c r="E41" s="67"/>
       <c r="F41" s="66"/>
@@ -2646,31 +2660,31 @@
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="137"/>
-      <c r="C42" s="139" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="102" t="s">
+      <c r="E42" s="125"/>
+      <c r="F42" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="107" t="s">
+      <c r="G42" s="125"/>
+      <c r="H42" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="107"/>
-      <c r="J42" s="102" t="s">
+      <c r="I42" s="130"/>
+      <c r="J42" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="106"/>
+      <c r="K42" s="129"/>
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="136"/>
-      <c r="C43" s="124"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="69" t="s">
         <v>7</v>
       </c>
@@ -2693,30 +2707,30 @@
       <c r="B44" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="112" t="s">
+      <c r="C44" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="91" t="s">
+      <c r="D44" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="91" t="s">
+      <c r="E44" s="116"/>
+      <c r="F44" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="92"/>
-      <c r="H44" s="91" t="s">
+      <c r="G44" s="116"/>
+      <c r="H44" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="91" t="s">
+      <c r="I44" s="116"/>
+      <c r="J44" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="K44" s="96"/>
+      <c r="K44" s="135"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="74"/>
-      <c r="C45" s="113"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="48" t="s">
         <v>7</v>
       </c>
@@ -2737,30 +2751,30 @@
     </row>
     <row r="46" spans="2:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="74"/>
-      <c r="C46" s="142" t="s">
+      <c r="C46" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="88" t="s">
+      <c r="D46" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="93"/>
-      <c r="F46" s="94" t="s">
+      <c r="E46" s="139"/>
+      <c r="F46" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="95"/>
-      <c r="H46" s="93" t="s">
+      <c r="G46" s="134"/>
+      <c r="H46" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="I46" s="93"/>
-      <c r="J46" s="94" t="s">
+      <c r="I46" s="139"/>
+      <c r="J46" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="97"/>
+      <c r="K46" s="136"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="74"/>
-      <c r="C47" s="143"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="25" t="s">
         <v>7</v>
       </c>
@@ -2781,7 +2795,7 @@
     </row>
     <row r="48" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="75"/>
-      <c r="C48" s="144"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="58"/>
       <c r="E48" s="59"/>
       <c r="F48" s="71" t="s">
@@ -2795,33 +2809,33 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="140" t="s">
+      <c r="C49" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="83" t="s">
+      <c r="D49" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="83" t="s">
+      <c r="E49" s="127"/>
+      <c r="F49" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="84"/>
-      <c r="H49" s="83" t="s">
+      <c r="G49" s="127"/>
+      <c r="H49" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="98" t="s">
+      <c r="I49" s="127"/>
+      <c r="J49" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="99"/>
+      <c r="K49" s="138"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="136"/>
-      <c r="C50" s="141"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="43" t="s">
         <v>7</v>
       </c>
@@ -2843,6 +2857,66 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jcaQVtr6ICyvfZG8CdnzDqla+wpPzBO0P7BBCI+k8jRiH7jHIwAm8gbmyPf2HBUjrwZN5KNmZBSOC+RmCJRx0w==" saltValue="2AN9Xe05nMKjoDp+BeQfGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="76">
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B6:D6"/>
@@ -2859,66 +2933,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:K28 G14 E14 E19 G19 I19 K19 I16 G21:G22 K14:K16 E21 I21 K21 I24 G24 E24 E27 G27 G30 E35 I35:I36 G40 E40 K35 K40 E47 I47 E30:E33 G35 I38 K38 G38 E38 I40:I41 K43 I43 G43 E43 E45 E50 G50 G47:G48 I50 K50 K45 I45 G45 I30 K30 I27 K24:K25 I14 K47" xr:uid="{4F850B23-72D3-42CE-AFF7-E77C4B7FF2EF}">

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqnmu\OneDrive\World_Bank_DRM\Cat_DDO_DRM_Diagnostic_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0874EDB9-B754-46F2-8BC8-E7A612AC2DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E8F8F-D387-46E5-8CF0-859394472AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="DRM Diagnostic" sheetId="5" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of questions unanswered: </t>
-  </si>
-  <si>
     <t>Thematic Area</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
   </si>
   <si>
     <t>Do laws and regulations mandate the use of risk information (e.g., hazard maps, risk assessments) to develop territorial, spatial, land use, or urban planning instruments?</t>
-  </si>
-  <si>
-    <t>DRM Diagnostic</t>
   </si>
   <si>
     <t>Is there a legal framework (e.g., a DRM law or other legally-binding instruments) defining distinct responsibilities for disaster risk reduction and emergency management?</t>
@@ -442,12 +436,18 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Blanks</t>
+  </si>
+  <si>
+    <t>Disaster Risk Management Policy Diagnostic Tool</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,13 +538,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -940,7 +933,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,37 +1087,40 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1143,13 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1497,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E605CE87-02FF-4583-93E8-6522C5287CD6}">
-  <dimension ref="B2:AY201"/>
+  <dimension ref="B2:AY198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,13 +1506,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:51" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:51" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1535,24 +1525,27 @@
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="9"/>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="54"/>
@@ -1560,7 +1553,10 @@
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="G8" s="4">
+        <f>COUNTBLANK(E15:E61)</f>
+        <v>0</v>
+      </c>
       <c r="H8" s="50"/>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
@@ -1608,7 +1604,7 @@
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="49"/>
@@ -1661,15 +1657,15 @@
       <c r="AY9" s="51"/>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.3">
-      <c r="B10" s="58" t="str">
-        <f>IF(B13&gt;0,"Please complete asessment to proceed", _xlfn.TEXTJOIN(";",FALSE,H18:H64))</f>
-        <v>Q1,Yes,1;Q2,No,1;Q3,No,0.5;Q4,Yes,0.5;Q5,No,1;Q6,Yes,1;Q7,No,1;Q8,Yes,0.5;Q9,Yes,0.5;Q10,Yes,1;Q11,No,1;Q12,No,0.5;Q13,Yes,0.5;Q14,Yes,1;Q15,No,1;Q16,Yes,1;Q17,Yes,1;Q18,No,0.25;Q19,No,0.25;Q20,Yes,0.25;Q21,Yes,0.25;Q22,No,1;Q23,Yes,1;Q24,No,1;Q25,No,1;Q26,No,0.5;Q27,No,0.5;Q28,Yes,1;Q29,Yes,1;Q30,Yes,1;Q31,Yes,1;Q32,No,0.5;Q33,No,0.5;Q34,Yes,1;Q35,Yes,1;Q36,Yes,1;Q37,Yes,1;Q38,Yes,1;Q39,Yes,1;Q40,Yes,0.5;Q41,Yes,0.5;Q42,Yes,1;Q43,Yes,1;Q44,Yes,1;Q45,Yes,1;Q46,No,1;Q47,Yes,1</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="50"/>
+      <c r="B10" s="57" t="str">
+        <f>IF(G8&gt;0,_xlfn.CONCAT("Please complete asessment to proceed. Remaining questions: ",G8), _xlfn.TEXTJOIN(";",FALSE,H15:H61))</f>
+        <v>Q1,Yes,1;Q2,Yes,1;Q3,Yes,0.5;Q4,Yes,0.5;Q5,No,1;Q6,Yes,1;Q7,No,1;Q8,Yes,0.5;Q9,Yes,0.5;Q10,Yes,1;Q11,No,1;Q12,No,0.5;Q13,Yes,0.5;Q14,Yes,1;Q15,No,1;Q16,Yes,1;Q17,Yes,1;Q18,No,0.25;Q19,No,0.25;Q20,Yes,0.25;Q21,Yes,0.25;Q22,No,1;Q23,Yes,1;Q24,No,1;Q25,No,1;Q26,No,0.5;Q27,No,0.5;Q28,Yes,1;Q29,Yes,1;Q30,Yes,1;Q31,Yes,1;Q32,No,0.5;Q33,No,0.5;Q34,Yes,1;Q35,Yes,1;Q36,Yes,1;Q37,Yes,1;Q38,Yes,1;Q39,Yes,1;Q40,Yes,0.5;Q41,Yes,0.5;Q42,Yes,1;Q43,Yes,1;Q44,Yes,1;Q45,Yes,1;Q46,No,1;Q47,Yes,1</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="50" t="s">
+        <v>124</v>
+      </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
@@ -1721,1019 +1717,1008 @@
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:51" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.3">
-      <c r="B13" s="55">
-        <f>47-(COUNTIF(E17:E64,"YES")+COUNTIF(E17:E64,"NO"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:51" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.3">
-      <c r="B15" s="56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="D14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,G15,E15,F15)</f>
+        <v>Q1,Yes,1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="58"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="37">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" ref="H16:H61" si="0">_xlfn.TEXTJOIN(",",FALSE,G16,E16,F16)</f>
+        <v>Q2,Yes,1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="58"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q3,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q4,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="58"/>
+      <c r="C19" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q5,No,1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="58"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q6,Yes,1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="39">
+        <v>1</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q7,No,1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="58"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q8,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="58"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q9,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="73"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="40">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10,Yes,1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="41">
+        <v>1</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q11,No,1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q12,No,0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q13,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="37">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q14,Yes,1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="58"/>
+      <c r="C29" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="36">
+        <v>1</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q15,No,1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="22" t="s">
+      <c r="E30" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="37">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q16,Yes,1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="36">
+        <v>1</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q17,Yes,1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q18,No,0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="58"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="E33" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="36">
-        <v>1</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",FALSE,G18,E18,F18)</f>
-        <v>Q1,Yes,1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="72"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="37">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" ref="H19:H64" si="0">_xlfn.TEXTJOIN(",",FALSE,G19,E19,F19)</f>
-        <v>Q2,No,1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="36">
+      <c r="F33" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q19,No,0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="58"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q20,Yes,0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="58"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q21,Yes,0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="58"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="37">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q22,No,1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="58"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="36">
+        <v>1</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q23,Yes,1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="58"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="37">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q24,No,1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="58"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="36">
+        <v>1</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q25,No,1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="58"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="37">
         <v>0.5</v>
       </c>
-      <c r="G20" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q3,No,0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="6" t="s">
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q26,No,0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="58"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q27,No,0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="43">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q28,Yes,1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="60"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="36">
+        <v>1</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q29,Yes,1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="60"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="37">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q30,Yes,1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="60"/>
+      <c r="C45" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="36">
+        <v>1</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q31,Yes,1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="60"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F46" s="37">
         <v>0.5</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q4,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="36">
-        <v>1</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q5,No,1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="72"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="G46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q32,No,0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="60"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="38">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q6,Yes,1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="39">
-        <v>1</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q7,No,1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="26" t="s">
+      <c r="F47" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q33,No,0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="60"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="37">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q34,Yes,1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="60"/>
+      <c r="C49" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="36">
+        <v>1</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q35,Yes,1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="60"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="37">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q36,Yes,1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="61"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="44">
+        <v>1</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q37,Yes,1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="45">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q38,Yes,1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="60"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="36">
+        <v>1</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q39,Yes,1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="60"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q40,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="60"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q41,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="60"/>
+      <c r="C56" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="37">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q42,Yes,1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="60"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="36">
+        <v>1</v>
+      </c>
+      <c r="G57" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q43,Yes,1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="60"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="38">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q44,Yes,1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="69"/>
+      <c r="D59" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="39">
+        <v>1</v>
+      </c>
+      <c r="G59" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q45,Yes,1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="60"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q8,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q9,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="73"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="40">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q10,Yes,1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="41">
-        <v>1</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q11,No,1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q12,No,0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="72"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q13,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="72"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="37">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q14,Yes,1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
-      <c r="C32" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="36">
-        <v>1</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q15,No,1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="72"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="37">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q16,Yes,1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="36">
-        <v>1</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q17,Yes,1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="72"/>
-      <c r="C35" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="37">
-        <v>0.25</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q18,No,0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="72"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q19,No,0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="72"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="37">
-        <v>0.25</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q20,Yes,0.25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="72"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q21,Yes,0.25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="72"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="37">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q22,No,1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="72"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="36">
-        <v>1</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q23,Yes,1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="72"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="37">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q24,No,1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="72"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="36">
-        <v>1</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q25,No,1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="72"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q26,No,0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="72"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q27,No,0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="43">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q28,Yes,1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="61"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="36">
-        <v>1</v>
-      </c>
-      <c r="G46" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q29,Yes,1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="61"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="37">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q30,Yes,1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="61"/>
-      <c r="C48" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="36">
-        <v>1</v>
-      </c>
-      <c r="G48" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q31,Yes,1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="61"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q32,No,0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="61"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q33,No,0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="61"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="37">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q34,Yes,1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="61"/>
-      <c r="C52" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="36">
-        <v>1</v>
-      </c>
-      <c r="G52" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q35,Yes,1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="61"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="37">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q36,Yes,1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="62"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="44">
-        <v>1</v>
-      </c>
-      <c r="G54" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q37,Yes,1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="45">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q38,Yes,1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="61"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="36">
-        <v>1</v>
-      </c>
-      <c r="G56" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="H56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q39,Yes,1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="61"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q40,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="61"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G58" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="H58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q41,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="61"/>
-      <c r="C59" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="37">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q42,Yes,1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="61"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="36">
-        <v>1</v>
-      </c>
-      <c r="G60" s="47" t="s">
-        <v>119</v>
+      <c r="F60" s="37">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q43,Yes,1</v>
+        <v>Q46,No,1</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="61"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="38">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>120</v>
+      <c r="C61" s="71"/>
+      <c r="D61" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="44">
+        <v>1</v>
+      </c>
+      <c r="G61" s="47" t="s">
+        <v>121</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q44,Yes,1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="39">
-        <v>1</v>
-      </c>
-      <c r="G62" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q45,Yes,1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="61"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="37">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q46,No,1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="62"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="44">
-        <v>1</v>
-      </c>
-      <c r="G64" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H64" s="1" t="str">
-        <f t="shared" si="0"/>
         <v>Q47,Yes,1</v>
       </c>
     </row>
+    <row r="62" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2868,34 +2853,31 @@
     <row r="196" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="197" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="198" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B18:B23"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C58"/>
     <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B28:B44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B25:B41"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E64" xr:uid="{DDBFF9BC-A376-44E4-9EF0-101A8F72CB94}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E61" xr:uid="{DDBFF9BC-A376-44E4-9EF0-101A8F72CB94}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqnmu\OneDrive\World_Bank_DRM\Cat_DDO_DRM_Diagnostic_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E8F8F-D387-46E5-8CF0-859394472AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B141C54-6498-4028-A82E-FE297890BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="126">
   <si>
     <t>DRM Pillar</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Question</t>
@@ -1094,52 +1091,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1489,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E605CE87-02FF-4583-93E8-6522C5287CD6}">
   <dimension ref="B2:AY198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,13 +1503,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:51" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:51" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1525,26 +1522,26 @@
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="9"/>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1601,7 @@
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="49"/>
@@ -1659,12 +1656,12 @@
     <row r="10" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B10" s="57" t="str">
         <f>IF(G8&gt;0,_xlfn.CONCAT("Please complete asessment to proceed. Remaining questions: ",G8), _xlfn.TEXTJOIN(";",FALSE,H15:H61))</f>
-        <v>Q1,Yes,1;Q2,Yes,1;Q3,Yes,0.5;Q4,Yes,0.5;Q5,No,1;Q6,Yes,1;Q7,No,1;Q8,Yes,0.5;Q9,Yes,0.5;Q10,Yes,1;Q11,No,1;Q12,No,0.5;Q13,Yes,0.5;Q14,Yes,1;Q15,No,1;Q16,Yes,1;Q17,Yes,1;Q18,No,0.25;Q19,No,0.25;Q20,Yes,0.25;Q21,Yes,0.25;Q22,No,1;Q23,Yes,1;Q24,No,1;Q25,No,1;Q26,No,0.5;Q27,No,0.5;Q28,Yes,1;Q29,Yes,1;Q30,Yes,1;Q31,Yes,1;Q32,No,0.5;Q33,No,0.5;Q34,Yes,1;Q35,Yes,1;Q36,Yes,1;Q37,Yes,1;Q38,Yes,1;Q39,Yes,1;Q40,Yes,0.5;Q41,Yes,0.5;Q42,Yes,1;Q43,Yes,1;Q44,Yes,1;Q45,Yes,1;Q46,No,1;Q47,Yes,1</v>
+        <v>Q1,Yes,1;Q2,Yes,1;Q3,Yes,0.5;Q4,Yes,0.5;Q5,Yes,1;Q6,Yes,1;Q7,Yes,1;Q8,Yes,0.5;Q9,Yes,0.5;Q10,Yes,1;Q11,Yes,1;Q12,Yes,0.5;Q13,Yes,0.5;Q14,Yes,1;Q15,Yes,1;Q16,Yes,1;Q17,Yes,1;Q18,Yes,0.25;Q19,Yes,0.25;Q20,Yes,0.25;Q21,Yes,0.25;Q22,Yes,1;Q23,Yes,1;Q24,Yes,1;Q25,Yes,1;Q26,Yes,0.5;Q27,Yes,0.5;Q28,Yes,1;Q29,Yes,1;Q30,Yes,1;Q31,Yes,1;Q32,Yes,0.5;Q33,Yes,0.5;Q34,Yes,1;Q35,Yes,1;Q36,Yes,1;Q37,Yes,1;Q38,Yes,1;Q39,Yes,1;Q40,Yes,0.5;Q41,Yes,0.5;Q42,Yes,1;Q43,Yes,1;Q44,Yes,1;Q45,Yes,1;Q46,Yes,1;Q47,Yes,1</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="53"/>
       <c r="E10" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B12" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1732,36 +1729,36 @@
         <v>32</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1</v>
+      </c>
+      <c r="G15" s="47" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>75</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,G15,E15,F15)</f>
@@ -1769,8 +1766,8 @@
       </c>
     </row>
     <row r="16" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="58"/>
-      <c r="C16" s="63"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
@@ -1781,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" ref="H16:H61" si="0">_xlfn.TEXTJOIN(",",FALSE,G16,E16,F16)</f>
@@ -1789,10 +1786,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>45</v>
@@ -1801,7 +1798,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1809,10 +1806,10 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="58"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>45</v>
@@ -1821,82 +1818,82 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q4,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="71"/>
+      <c r="C19" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1</v>
+      </c>
+      <c r="G19" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q4,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q5,Yes,1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="71"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="36">
-        <v>1</v>
-      </c>
-      <c r="G19" s="47" t="s">
+      <c r="E20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q5,No,1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="58"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="38">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Q6,Yes,1</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="39">
         <v>1</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q7,No,1</v>
+        <v>Q7,Yes,1</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>45</v>
@@ -1905,7 +1902,7 @@
         <v>0.5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1913,10 +1910,10 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>45</v>
@@ -1925,7 +1922,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1933,8 +1930,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="73"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12" t="s">
         <v>37</v>
       </c>
@@ -1945,60 +1942,60 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10,Yes,1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="41">
+        <v>1</v>
+      </c>
+      <c r="G25" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q10,Yes,1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="41">
-        <v>1</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>85</v>
-      </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q11,No,1</v>
+        <v>Q11,Yes,1</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="37">
         <v>0.5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q12,No,0.5</v>
+        <v>Q12,Yes,0.5</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
@@ -2009,58 +2006,58 @@
         <v>0.5</v>
       </c>
       <c r="G27" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q13,Yes,0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="71"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="37">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q13,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="37">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Q14,Yes,1</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="62" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="36">
         <v>1</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q15,No,1</v>
+        <v>Q15,Yes,1</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="63"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2079,8 +2076,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="10" t="s">
         <v>41</v>
       </c>
@@ -2091,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2099,52 +2096,52 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="62" t="s">
+      <c r="B32" s="71"/>
+      <c r="C32" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="37">
         <v>0.25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q18,No,0.25</v>
+        <v>Q18,Yes,0.25</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="63"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="36">
         <v>0.25</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q19,No,0.25</v>
+        <v>Q19,Yes,0.25</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="58"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>45</v>
@@ -2153,7 +2150,7 @@
         <v>0.25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2161,10 +2158,10 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>45</v>
@@ -2173,7 +2170,7 @@
         <v>0.25</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2181,28 +2178,28 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="63"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="37">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q22,No,1</v>
+        <v>Q22,Yes,1</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="10" t="s">
         <v>40</v>
       </c>
@@ -2213,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2221,90 +2218,90 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="63"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="37">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q24,Yes,1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="71"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="36">
+        <v>1</v>
+      </c>
+      <c r="G39" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q24,No,1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="36">
-        <v>1</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>99</v>
-      </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q25,No,1</v>
+        <v>Q25,Yes,1</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="58"/>
-      <c r="C40" s="63"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" s="37">
         <v>0.5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q26,No,0.5</v>
+        <v>Q26,Yes,0.5</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="58"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F41" s="42">
         <v>0.5</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q27,No,0.5</v>
+        <v>Q27,Yes,0.5</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -2317,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2326,7 +2323,7 @@
     </row>
     <row r="43" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="60"/>
-      <c r="C43" s="63"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="10" t="s">
         <v>15</v>
       </c>
@@ -2337,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2346,7 +2343,7 @@
     </row>
     <row r="44" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="60"/>
-      <c r="C44" s="64"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="6" t="s">
         <v>16</v>
       </c>
@@ -2357,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2366,7 +2363,7 @@
     </row>
     <row r="45" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="60"/>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -2379,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2388,47 +2385,47 @@
     </row>
     <row r="46" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="60"/>
-      <c r="C46" s="63"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" s="37">
         <v>0.5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q32,No,0.5</v>
+        <v>Q32,Yes,0.5</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="60"/>
-      <c r="C47" s="63"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F47" s="36">
         <v>0.5</v>
       </c>
       <c r="G47" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q33,No,0.5</v>
+        <v>Q33,Yes,0.5</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="60"/>
-      <c r="C48" s="64"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="6" t="s">
         <v>19</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2448,7 +2445,7 @@
     </row>
     <row r="49" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="60"/>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="64" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -2461,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="50" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="60"/>
-      <c r="C50" s="63"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="6" t="s">
         <v>22</v>
       </c>
@@ -2481,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2490,9 +2487,9 @@
     </row>
     <row r="51" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="61"/>
-      <c r="C51" s="68"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>45</v>
@@ -2501,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2512,7 +2509,7 @@
       <c r="B52" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -2525,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="53" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="60"/>
-      <c r="C53" s="63"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="10" t="s">
         <v>25</v>
       </c>
@@ -2545,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2554,7 +2551,7 @@
     </row>
     <row r="54" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="60"/>
-      <c r="C54" s="63"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="6" t="s">
         <v>34</v>
       </c>
@@ -2565,7 +2562,7 @@
         <v>0.5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2574,7 +2571,7 @@
     </row>
     <row r="55" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="60"/>
-      <c r="C55" s="64"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="10" t="s">
         <v>26</v>
       </c>
@@ -2585,7 +2582,7 @@
         <v>0.5</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2594,7 +2591,7 @@
     </row>
     <row r="56" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="60"/>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -2607,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2616,7 +2613,7 @@
     </row>
     <row r="57" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="60"/>
-      <c r="C57" s="63"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="10" t="s">
         <v>44</v>
       </c>
@@ -2627,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2636,9 +2633,9 @@
     </row>
     <row r="58" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="60"/>
-      <c r="C58" s="63"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>45</v>
@@ -2647,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2658,7 +2655,7 @@
       <c r="B59" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="69"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="11" t="s">
         <v>29</v>
       </c>
@@ -2669,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2678,27 +2675,27 @@
     </row>
     <row r="60" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="60"/>
-      <c r="C60" s="70"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60" s="37">
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q46,No,1</v>
+        <v>Q46,Yes,1</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="61"/>
-      <c r="C61" s="71"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="16" t="s">
         <v>30</v>
       </c>
@@ -2709,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2855,6 +2852,9 @@
     <row r="198" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B15:B20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C25:C28"/>
@@ -2871,9 +2871,6 @@
     <mergeCell ref="B25:B41"/>
     <mergeCell ref="B42:B51"/>
     <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqnmu\OneDrive\World_Bank_DRM\Cat_DDO_DRM_Diagnostic_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B141C54-6498-4028-A82E-FE297890BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E281060C-B249-4EEA-A958-CD0BF3134DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="126">
   <si>
     <t>DRM Pillar</t>
   </si>
@@ -930,7 +930,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,15 +1117,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1486,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E605CE87-02FF-4583-93E8-6522C5287CD6}">
   <dimension ref="B2:AY198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1497,8 +1488,8 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="87.21875" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="6.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="6.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1742,7 +1733,7 @@
       </c>
     </row>
     <row r="15" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="70" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="64" t="s">
@@ -1766,7 +1757,7 @@
       </c>
     </row>
     <row r="16" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="62"/>
       <c r="D16" s="6" t="s">
         <v>3</v>
@@ -1786,7 +1777,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="71"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="62"/>
       <c r="D17" s="10" t="s">
         <v>56</v>
@@ -1806,7 +1797,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="71"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="63"/>
       <c r="D18" s="6" t="s">
         <v>57</v>
@@ -1826,7 +1817,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="64" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1839,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="71"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="62"/>
       <c r="D20" s="7" t="s">
         <v>66</v>
@@ -1868,10 +1859,12 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="67"/>
+      <c r="C21" s="67" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="11" t="s">
         <v>35</v>
       </c>
@@ -1890,7 +1883,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="71"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="D22" s="6" t="s">
         <v>61</v>
@@ -1910,7 +1903,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="71"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="D23" s="10" t="s">
         <v>62</v>
@@ -1930,7 +1923,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="72"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="69"/>
       <c r="D24" s="12" t="s">
         <v>37</v>
@@ -1950,7 +1943,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="68" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="62" t="s">
@@ -1974,7 +1967,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="71"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="62"/>
       <c r="D26" s="6" t="s">
         <v>39</v>
@@ -1994,7 +1987,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="71"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="62"/>
       <c r="D27" s="10" t="s">
         <v>38</v>
@@ -2014,7 +2007,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="71"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="63"/>
       <c r="D28" s="6" t="s">
         <v>67</v>
@@ -2034,7 +2027,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="71"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="64" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +2049,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="71"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="62"/>
       <c r="D30" s="6" t="s">
         <v>33</v>
@@ -2076,7 +2069,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="71"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="63"/>
       <c r="D31" s="10" t="s">
         <v>41</v>
@@ -2096,7 +2089,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="64" t="s">
         <v>10</v>
       </c>
@@ -2118,7 +2111,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="62"/>
       <c r="D33" s="20" t="s">
         <v>51</v>
@@ -2138,7 +2131,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="62"/>
       <c r="D34" s="21" t="s">
         <v>52</v>
@@ -2158,7 +2151,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="71"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="62"/>
       <c r="D35" s="20" t="s">
         <v>53</v>
@@ -2178,7 +2171,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="71"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="62"/>
       <c r="D36" s="6" t="s">
         <v>11</v>
@@ -2198,7 +2191,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="71"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="62"/>
       <c r="D37" s="10" t="s">
         <v>40</v>
@@ -2218,7 +2211,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="71"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="62"/>
       <c r="D38" s="6" t="s">
         <v>36</v>
@@ -2238,7 +2231,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="62"/>
       <c r="D39" s="10" t="s">
         <v>70</v>
@@ -2258,7 +2251,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="71"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="62"/>
       <c r="D40" s="6" t="s">
         <v>68</v>
@@ -2278,7 +2271,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="71"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="62"/>
       <c r="D41" s="14" t="s">
         <v>69</v>
@@ -2655,7 +2648,9 @@
       <c r="B59" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="67"/>
+      <c r="C59" s="59" t="s">
+        <v>28</v>
+      </c>
       <c r="D59" s="11" t="s">
         <v>29</v>
       </c>
@@ -2675,7 +2670,7 @@
     </row>
     <row r="60" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="60"/>
-      <c r="C60" s="68"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="6" t="s">
         <v>72</v>
       </c>
@@ -2695,7 +2690,7 @@
     </row>
     <row r="61" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="61"/>
-      <c r="C61" s="69"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="16" t="s">
         <v>30</v>
       </c>

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqnmu\OneDrive\World_Bank_DRM\Cat_DDO_DRM_Diagnostic_Dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62bed0b45625b526/World_Bank_DRM/Cat_DDO_DRM_Diagnostic_Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E281060C-B249-4EEA-A958-CD0BF3134DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{E281060C-B249-4EEA-A958-CD0BF3134DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069234E9-5199-436A-BF0E-0A1396DDCC8E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>DRM Pillar</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>Disaster Risk Management Policy Diagnostic Tool</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1080,9 +1083,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1091,6 +1091,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1103,15 +1118,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1121,13 +1127,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1477,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E605CE87-02FF-4583-93E8-6522C5287CD6}">
   <dimension ref="B2:AY198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C61"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,18 +1492,18 @@
     <col min="4" max="4" width="87.21875" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
     <col min="6" max="7" width="6.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:51" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:51" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1526,7 +1529,7 @@
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="4"/>
@@ -1536,7 +1539,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="54"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="48"/>
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
@@ -1645,12 +1648,12 @@
       <c r="AY9" s="51"/>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.3">
-      <c r="B10" s="57" t="str">
+      <c r="B10" s="56" t="str">
         <f>IF(G8&gt;0,_xlfn.CONCAT("Please complete asessment to proceed. Remaining questions: ",G8), _xlfn.TEXTJOIN(";",FALSE,H15:H61))</f>
-        <v>Q1,Yes,1;Q2,Yes,1;Q3,Yes,0.5;Q4,Yes,0.5;Q5,Yes,1;Q6,Yes,1;Q7,Yes,1;Q8,Yes,0.5;Q9,Yes,0.5;Q10,Yes,1;Q11,Yes,1;Q12,Yes,0.5;Q13,Yes,0.5;Q14,Yes,1;Q15,Yes,1;Q16,Yes,1;Q17,Yes,1;Q18,Yes,0.25;Q19,Yes,0.25;Q20,Yes,0.25;Q21,Yes,0.25;Q22,Yes,1;Q23,Yes,1;Q24,Yes,1;Q25,Yes,1;Q26,Yes,0.5;Q27,Yes,0.5;Q28,Yes,1;Q29,Yes,1;Q30,Yes,1;Q31,Yes,1;Q32,Yes,0.5;Q33,Yes,0.5;Q34,Yes,1;Q35,Yes,1;Q36,Yes,1;Q37,Yes,1;Q38,Yes,1;Q39,Yes,1;Q40,Yes,0.5;Q41,Yes,0.5;Q42,Yes,1;Q43,Yes,1;Q44,Yes,1;Q45,Yes,1;Q46,Yes,1;Q47,Yes,1</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="53"/>
+        <v>Q1,Yes,1;Q2,Yes,1;Q3,Yes,0.5;Q4,Yes,0.5;Q5,No,1;Q6,No,1;Q7,Yes,1;Q8,Yes,0.5;Q9,Yes,0.5;Q10,Yes,1;Q11,No,1;Q12,No,0.5;Q13,No,0.5;Q14,No,1;Q15,Yes,1;Q16,Yes,1;Q17,Yes,1;Q18,No,0.25;Q19,No,0.25;Q20,No,0.25;Q21,No,0.25;Q22,No,1;Q23,No,1;Q24,No,1;Q25,No,1;Q26,No,0.5;Q27,No,0.5;Q28,Yes,1;Q29,Yes,1;Q30,Yes,1;Q31,Yes,1;Q32,Yes,0.5;Q33,Yes,0.5;Q34,Yes,1;Q35,No,1;Q36,No,1;Q37,No,1;Q38,Yes,1;Q39,Yes,1;Q40,Yes,0.5;Q41,Yes,0.5;Q42,No,1;Q43,No,1;Q44,No,1;Q45,Yes,1;Q46,Yes,1;Q47,Yes,1</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="50" t="s">
         <v>123</v>
       </c>
@@ -1705,7 +1708,7 @@
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.3">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1733,10 +1736,10 @@
       </c>
     </row>
     <row r="15" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="57" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -1757,8 +1760,8 @@
       </c>
     </row>
     <row r="16" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="68"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
@@ -1777,8 +1780,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="68"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="10" t="s">
         <v>56</v>
       </c>
@@ -1797,8 +1800,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="68"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="6" t="s">
         <v>57</v>
       </c>
@@ -1817,15 +1820,15 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="68"/>
-      <c r="C19" s="64" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="57" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F19" s="36">
         <v>1</v>
@@ -1835,17 +1838,17 @@
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q5,Yes,1</v>
+        <v>Q5,No,1</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="68"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F20" s="38">
         <v>1</v>
@@ -1855,14 +1858,14 @@
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q6,Yes,1</v>
+        <v>Q6,No,1</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="68" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1883,8 +1886,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="6" t="s">
         <v>61</v>
       </c>
@@ -1903,8 +1906,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="10" t="s">
         <v>62</v>
       </c>
@@ -1943,17 +1946,17 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="58" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F25" s="41">
         <v>1</v>
@@ -1963,17 +1966,17 @@
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q11,Yes,1</v>
+        <v>Q11,No,1</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F26" s="37">
         <v>0.5</v>
@@ -1983,17 +1986,17 @@
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q12,Yes,0.5</v>
+        <v>Q12,No,0.5</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="68"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F27" s="36">
         <v>0.5</v>
@@ -2003,17 +2006,17 @@
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q13,Yes,0.5</v>
+        <v>Q13,No,0.5</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="68"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F28" s="37">
         <v>1</v>
@@ -2023,12 +2026,12 @@
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q14,Yes,1</v>
+        <v>Q14,No,1</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="61"/>
+      <c r="C29" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -2049,8 +2052,8 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="68"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
@@ -2069,8 +2072,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="68"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="10" t="s">
         <v>41</v>
       </c>
@@ -2089,15 +2092,15 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="68"/>
-      <c r="C32" s="64" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F32" s="37">
         <v>0.25</v>
@@ -2107,17 +2110,17 @@
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q18,Yes,0.25</v>
+        <v>Q18,No,0.25</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F33" s="36">
         <v>0.25</v>
@@ -2127,17 +2130,17 @@
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q19,Yes,0.25</v>
+        <v>Q19,No,0.25</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="68"/>
-      <c r="C34" s="62"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F34" s="37">
         <v>0.25</v>
@@ -2147,17 +2150,17 @@
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q20,Yes,0.25</v>
+        <v>Q20,No,0.25</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="68"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F35" s="36">
         <v>0.25</v>
@@ -2167,17 +2170,17 @@
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q21,Yes,0.25</v>
+        <v>Q21,No,0.25</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="68"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F36" s="37">
         <v>1</v>
@@ -2187,17 +2190,17 @@
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q22,Yes,1</v>
+        <v>Q22,No,1</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="68"/>
-      <c r="C37" s="62"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F37" s="36">
         <v>1</v>
@@ -2207,17 +2210,17 @@
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q23,Yes,1</v>
+        <v>Q23,No,1</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="68"/>
-      <c r="C38" s="62"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F38" s="37">
         <v>1</v>
@@ -2227,17 +2230,17 @@
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q24,Yes,1</v>
+        <v>Q24,No,1</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="68"/>
-      <c r="C39" s="62"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F39" s="36">
         <v>1</v>
@@ -2247,17 +2250,17 @@
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q25,Yes,1</v>
+        <v>Q25,No,1</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="68"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F40" s="37">
         <v>0.5</v>
@@ -2267,17 +2270,17 @@
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q26,Yes,0.5</v>
+        <v>Q26,No,0.5</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="68"/>
-      <c r="C41" s="62"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F41" s="42">
         <v>0.5</v>
@@ -2287,14 +2290,14 @@
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q27,Yes,0.5</v>
+        <v>Q27,No,0.5</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="66" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -2315,8 +2318,8 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="60"/>
-      <c r="C43" s="62"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="10" t="s">
         <v>15</v>
       </c>
@@ -2335,8 +2338,8 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="60"/>
-      <c r="C44" s="63"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="6" t="s">
         <v>16</v>
       </c>
@@ -2355,8 +2358,8 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="60"/>
-      <c r="C45" s="64" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="57" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -2377,8 +2380,8 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="60"/>
-      <c r="C46" s="62"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="6" t="s">
         <v>58</v>
       </c>
@@ -2397,8 +2400,8 @@
       </c>
     </row>
     <row r="47" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="60"/>
-      <c r="C47" s="62"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="10" t="s">
         <v>59</v>
       </c>
@@ -2417,8 +2420,8 @@
       </c>
     </row>
     <row r="48" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="60"/>
-      <c r="C48" s="63"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="6" t="s">
         <v>19</v>
       </c>
@@ -2437,15 +2440,15 @@
       </c>
     </row>
     <row r="49" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="60"/>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="57" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F49" s="36">
         <v>1</v>
@@ -2455,17 +2458,17 @@
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q35,Yes,1</v>
+        <v>Q35,No,1</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="60"/>
-      <c r="C50" s="62"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F50" s="37">
         <v>1</v>
@@ -2475,17 +2478,17 @@
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q36,Yes,1</v>
+        <v>Q36,No,1</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="61"/>
-      <c r="C51" s="66"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F51" s="44">
         <v>1</v>
@@ -2495,14 +2498,14 @@
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q37,Yes,1</v>
+        <v>Q37,No,1</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -2523,8 +2526,8 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="60"/>
-      <c r="C53" s="62"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="10" t="s">
         <v>25</v>
       </c>
@@ -2543,8 +2546,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="60"/>
-      <c r="C54" s="62"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="6" t="s">
         <v>34</v>
       </c>
@@ -2563,8 +2566,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="60"/>
-      <c r="C55" s="63"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="10" t="s">
         <v>26</v>
       </c>
@@ -2583,15 +2586,15 @@
       </c>
     </row>
     <row r="56" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="60"/>
-      <c r="C56" s="64" t="s">
+      <c r="B56" s="64"/>
+      <c r="C56" s="57" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F56" s="37">
         <v>1</v>
@@ -2601,17 +2604,17 @@
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q42,Yes,1</v>
+        <v>Q42,No,1</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="60"/>
-      <c r="C57" s="62"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F57" s="36">
         <v>1</v>
@@ -2621,17 +2624,17 @@
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q43,Yes,1</v>
+        <v>Q43,No,1</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="60"/>
-      <c r="C58" s="62"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F58" s="38">
         <v>1</v>
@@ -2641,14 +2644,14 @@
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q44,Yes,1</v>
+        <v>Q44,No,1</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="63" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -2669,8 +2672,8 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="6" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +2692,8 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="16" t="s">
         <v>30</v>
       </c>
@@ -2847,6 +2850,9 @@
     <row r="198" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B25:B41"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B58"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B15:B20"/>
@@ -2863,9 +2869,6 @@
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B25:B41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B58"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62bed0b45625b526/World_Bank_DRM/Cat_DDO_DRM_Diagnostic_Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{E281060C-B249-4EEA-A958-CD0BF3134DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069234E9-5199-436A-BF0E-0A1396DDCC8E}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{E281060C-B249-4EEA-A958-CD0BF3134DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DD9D106-83A6-4BEA-8763-1533E50D3AE8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
+    <workbookView xWindow="30612" yWindow="4248" windowWidth="23256" windowHeight="12456" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="DRM Diagnostic" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>DRM Pillar</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Are there regulations that define standards for catastrophe insurance coverage of public or private assets?</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Question</t>
@@ -438,9 +435,6 @@
   </si>
   <si>
     <t>Disaster Risk Management Policy Diagnostic Tool</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1091,6 +1085,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,21 +1112,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1128,9 +1125,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,6 +1153,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1481,7 +1479,7 @@
   <dimension ref="B2:AY198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,19 +1489,19 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="87.21875" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="6.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="6.77734375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:51" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:51" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1516,26 +1514,26 @@
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="9"/>
       <c r="G7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1546,7 +1544,7 @@
       <c r="F8" s="50"/>
       <c r="G8" s="4">
         <f>COUNTBLANK(E15:E61)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="51"/>
@@ -1595,7 +1593,7 @@
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="49"/>
@@ -1650,12 +1648,12 @@
     <row r="10" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B10" s="56" t="str">
         <f>IF(G8&gt;0,_xlfn.CONCAT("Please complete asessment to proceed. Remaining questions: ",G8), _xlfn.TEXTJOIN(";",FALSE,H15:H61))</f>
-        <v>Q1,Yes,1;Q2,Yes,1;Q3,Yes,0.5;Q4,Yes,0.5;Q5,No,1;Q6,No,1;Q7,Yes,1;Q8,Yes,0.5;Q9,Yes,0.5;Q10,Yes,1;Q11,No,1;Q12,No,0.5;Q13,No,0.5;Q14,No,1;Q15,Yes,1;Q16,Yes,1;Q17,Yes,1;Q18,No,0.25;Q19,No,0.25;Q20,No,0.25;Q21,No,0.25;Q22,No,1;Q23,No,1;Q24,No,1;Q25,No,1;Q26,No,0.5;Q27,No,0.5;Q28,Yes,1;Q29,Yes,1;Q30,Yes,1;Q31,Yes,1;Q32,Yes,0.5;Q33,Yes,0.5;Q34,Yes,1;Q35,No,1;Q36,No,1;Q37,No,1;Q38,Yes,1;Q39,Yes,1;Q40,Yes,0.5;Q41,Yes,0.5;Q42,No,1;Q43,No,1;Q44,No,1;Q45,Yes,1;Q46,Yes,1;Q47,Yes,1</v>
+        <v>Please complete asessment to proceed. Remaining questions: 47</v>
       </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="70"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -1709,7 +1707,7 @@
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B12" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1723,992 +1721,898 @@
         <v>32</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="36">
+        <v>1</v>
+      </c>
+      <c r="G15" s="47" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,G15,E15,F15)</f>
-        <v>Q1,Yes,1</v>
+        <v>Q1,,1</v>
       </c>
     </row>
     <row r="16" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>45</v>
-      </c>
+      <c r="E16" s="26"/>
       <c r="F16" s="37">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" ref="H16:H61" si="0">_xlfn.TEXTJOIN(",",FALSE,G16,E16,F16)</f>
-        <v>Q2,Yes,1</v>
+        <v>Q2,,1</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E17" s="25"/>
       <c r="F17" s="36">
         <v>0.5</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q3,Yes,0.5</v>
+        <v>Q3,,0.5</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>45</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E18" s="26"/>
       <c r="F18" s="37">
         <v>0.5</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q4,,0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="58"/>
+      <c r="C19" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="36">
+        <v>1</v>
+      </c>
+      <c r="G19" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q4,Yes,0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
-      <c r="C19" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q5,,1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="58"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="36">
-        <v>1</v>
-      </c>
-      <c r="G19" s="47" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q5,No,1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="61"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="38">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q6,No,1</v>
+        <v>Q6,,1</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="69" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>45</v>
-      </c>
+      <c r="E21" s="28"/>
       <c r="F21" s="39">
         <v>1</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q7,Yes,1</v>
+        <v>Q7,,1</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>45</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E22" s="26"/>
       <c r="F22" s="37">
         <v>0.5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q8,Yes,0.5</v>
+        <v>Q8,,0.5</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>45</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E23" s="25"/>
       <c r="F23" s="36">
         <v>0.5</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q9,Yes,0.5</v>
+        <v>Q9,,0.5</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="E24" s="29"/>
       <c r="F24" s="40">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10,,1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="41">
+        <v>1</v>
+      </c>
+      <c r="G25" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q10,Yes,1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="41">
-        <v>1</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>84</v>
-      </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q11,No,1</v>
+        <v>Q11,,1</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="61"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="E26" s="26"/>
       <c r="F26" s="37">
         <v>0.5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q12,No,0.5</v>
+        <v>Q12,,0.5</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="61"/>
-      <c r="C27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="E27" s="25"/>
       <c r="F27" s="36">
         <v>0.5</v>
       </c>
       <c r="G27" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q13,,0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="37">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q13,No,0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="37">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q14,No,1</v>
+        <v>Q14,,1</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
-      <c r="C29" s="57" t="s">
+      <c r="B29" s="58"/>
+      <c r="C29" s="62" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="E29" s="25"/>
       <c r="F29" s="36">
         <v>1</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q15,Yes,1</v>
+        <v>Q15,,1</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>45</v>
-      </c>
+      <c r="E30" s="26"/>
       <c r="F30" s="37">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q16,Yes,1</v>
+        <v>Q16,,1</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="61"/>
-      <c r="C31" s="59"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="E31" s="25"/>
       <c r="F31" s="36">
         <v>1</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q17,Yes,1</v>
+        <v>Q17,,1</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="61"/>
-      <c r="C32" s="57" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>126</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="37">
         <v>0.25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q18,No,0.25</v>
+        <v>Q18,,0.25</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
-      <c r="C33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>126</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E33" s="25"/>
       <c r="F33" s="36">
         <v>0.25</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q19,No,0.25</v>
+        <v>Q19,,0.25</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="61"/>
-      <c r="C34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>126</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E34" s="26"/>
       <c r="F34" s="37">
         <v>0.25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q20,No,0.25</v>
+        <v>Q20,,0.25</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="61"/>
-      <c r="C35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>126</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E35" s="25"/>
       <c r="F35" s="36">
         <v>0.25</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q21,No,0.25</v>
+        <v>Q21,,0.25</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="61"/>
-      <c r="C36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="E36" s="26"/>
       <c r="F36" s="37">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q22,No,1</v>
+        <v>Q22,,1</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
-      <c r="C37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="E37" s="25"/>
       <c r="F37" s="36">
         <v>1</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q23,No,1</v>
+        <v>Q23,,1</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="61"/>
-      <c r="C38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="E38" s="26"/>
       <c r="F38" s="37">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q24,,1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="58"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="36">
+        <v>1</v>
+      </c>
+      <c r="G39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q24,No,1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="61"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="36">
-        <v>1</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>98</v>
-      </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q25,No,1</v>
+        <v>Q25,,1</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="61"/>
-      <c r="C40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>126</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E40" s="26"/>
       <c r="F40" s="37">
         <v>0.5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q26,No,0.5</v>
+        <v>Q26,,0.5</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="61"/>
-      <c r="C41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>126</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E41" s="31"/>
       <c r="F41" s="42">
         <v>0.5</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q27,No,0.5</v>
+        <v>Q27,,0.5</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="E42" s="32"/>
       <c r="F42" s="43">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q28,Yes,1</v>
+        <v>Q28,,1</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="64"/>
-      <c r="C43" s="58"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="E43" s="25"/>
       <c r="F43" s="36">
         <v>1</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q29,Yes,1</v>
+        <v>Q29,,1</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="64"/>
-      <c r="C44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>45</v>
-      </c>
+      <c r="E44" s="26"/>
       <c r="F44" s="37">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q30,Yes,1</v>
+        <v>Q30,,1</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="64"/>
-      <c r="C45" s="57" t="s">
+      <c r="B45" s="60"/>
+      <c r="C45" s="62" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="E45" s="25"/>
       <c r="F45" s="36">
         <v>1</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q31,Yes,1</v>
+        <v>Q31,,1</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="64"/>
-      <c r="C46" s="58"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E46" s="26"/>
       <c r="F46" s="37">
         <v>0.5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q32,Yes,0.5</v>
+        <v>Q32,,0.5</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="64"/>
-      <c r="C47" s="58"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>45</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E47" s="25"/>
       <c r="F47" s="36">
         <v>0.5</v>
       </c>
       <c r="G47" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q33,Yes,0.5</v>
+        <v>Q33,,0.5</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="64"/>
-      <c r="C48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>45</v>
-      </c>
+      <c r="E48" s="26"/>
       <c r="F48" s="37">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q34,Yes,1</v>
+        <v>Q34,,1</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="64"/>
-      <c r="C49" s="57" t="s">
+      <c r="B49" s="60"/>
+      <c r="C49" s="62" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="E49" s="25"/>
       <c r="F49" s="36">
         <v>1</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q35,No,1</v>
+        <v>Q35,,1</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="64"/>
-      <c r="C50" s="58"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="E50" s="26"/>
       <c r="F50" s="37">
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q36,,1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="61"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="44">
+        <v>1</v>
+      </c>
+      <c r="G51" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q36,No,1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="65"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="44">
-        <v>1</v>
-      </c>
-      <c r="G51" s="47" t="s">
-        <v>110</v>
-      </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q37,No,1</v>
+        <v>Q37,,1</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="34" t="s">
-        <v>45</v>
-      </c>
+      <c r="E52" s="34"/>
       <c r="F52" s="45">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q38,Yes,1</v>
+        <v>Q38,,1</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="64"/>
-      <c r="C53" s="58"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="E53" s="25"/>
       <c r="F53" s="36">
         <v>1</v>
       </c>
       <c r="G53" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q39,Yes,1</v>
+        <v>Q39,,1</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="64"/>
-      <c r="C54" s="58"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="26" t="s">
-        <v>45</v>
-      </c>
+      <c r="E54" s="26"/>
       <c r="F54" s="37">
         <v>0.5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q40,Yes,0.5</v>
+        <v>Q40,,0.5</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="64"/>
-      <c r="C55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="E55" s="25"/>
       <c r="F55" s="36">
         <v>0.5</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q41,Yes,0.5</v>
+        <v>Q41,,0.5</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="64"/>
-      <c r="C56" s="57" t="s">
+      <c r="B56" s="60"/>
+      <c r="C56" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="E56" s="26"/>
       <c r="F56" s="37">
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q42,No,1</v>
+        <v>Q42,,1</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="64"/>
-      <c r="C57" s="58"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="E57" s="25"/>
       <c r="F57" s="36">
         <v>1</v>
       </c>
       <c r="G57" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q43,,1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="60"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="38">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q43,No,1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="64"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="38">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q44,No,1</v>
+        <v>Q44,,1</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="59" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="35" t="s">
-        <v>45</v>
-      </c>
+      <c r="E59" s="35"/>
       <c r="F59" s="39">
         <v>1</v>
       </c>
       <c r="G59" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q45,,1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="37">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Q45,Yes,1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="37">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q46,Yes,1</v>
+        <v>Q46,,1</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="33" t="s">
-        <v>45</v>
-      </c>
+      <c r="E61" s="33"/>
       <c r="F61" s="44">
         <v>1</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Q47,Yes,1</v>
+        <v>Q47,,1</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2850,12 +2754,6 @@
     <row r="198" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B25:B41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B15:B20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C25:C28"/>
@@ -2869,6 +2767,12 @@
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B25:B41"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">

--- a/data/DRM System Diagnostic Assessment - Template.xlsx
+++ b/data/DRM System Diagnostic Assessment - Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62bed0b45625b526/World_Bank_DRM/Cat_DDO_DRM_Diagnostic_Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{E281060C-B249-4EEA-A958-CD0BF3134DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DD9D106-83A6-4BEA-8763-1533E50D3AE8}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{E281060C-B249-4EEA-A958-CD0BF3134DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE9760BC-03E1-47FE-84C7-EE3490DF81FB}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="4248" windowWidth="23256" windowHeight="12456" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D35593D8-ABCE-4EA8-921D-2F7793671AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="DRM Diagnostic" sheetId="5" r:id="rId1"/>
@@ -179,12 +179,6 @@
     <t>1. Answer the questions below.</t>
   </si>
   <si>
-    <t>2. Go to the following website. The website may take some time to load, please retry if needed.</t>
-  </si>
-  <si>
-    <t>https://cat-ddo-drm-diagnostic-dashboard.onrender.com</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -435,6 +429,12 @@
   </si>
   <si>
     <t>Disaster Risk Management Policy Diagnostic Tool</t>
+  </si>
+  <si>
+    <t>https://cat-ddo-drm-diagnostic-dashboard-129737065802.us-central1.run.app/</t>
+  </si>
+  <si>
+    <t>2. Go to the following website for the latest version of the tool. The website may take some time to load, please retry if needed.</t>
   </si>
 </sst>
 </file>
@@ -927,7 +927,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1088,45 +1088,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -1479,7 +1480,7 @@
   <dimension ref="B2:AY198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,13 +1496,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:51" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:51" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1521,19 +1522,19 @@
     </row>
     <row r="6" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53" t="s">
-        <v>48</v>
+      <c r="B7" s="71" t="s">
+        <v>123</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="9"/>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1593,7 +1594,7 @@
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="49"/>
@@ -1653,7 +1654,7 @@
       <c r="C10" s="55"/>
       <c r="D10" s="57"/>
       <c r="E10" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -1707,7 +1708,7 @@
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B12" s="54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1724,31 +1725,31 @@
         <v>45</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="36">
         <v>1</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,G15,E15,F15)</f>
@@ -1756,8 +1757,8 @@
       </c>
     </row>
     <row r="16" spans="2:51" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="58"/>
-      <c r="C16" s="63"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" ref="H16:H61" si="0">_xlfn.TEXTJOIN(",",FALSE,G16,E16,F16)</f>
@@ -1774,17 +1775,17 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="36">
         <v>0.5</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1792,17 +1793,17 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="58"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="37">
         <v>0.5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1810,19 +1811,19 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="62" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="36">
         <v>1</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1830,17 +1831,17 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="58"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="38">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1848,10 +1849,10 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1862,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1870,17 +1871,17 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="37">
         <v>0.5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1888,17 +1889,17 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="36">
         <v>0.5</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1906,8 +1907,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12" t="s">
         <v>37</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1924,21 +1925,21 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="41">
         <v>1</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1946,8 +1947,8 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="6" t="s">
         <v>39</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1964,8 +1965,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>0.5</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1982,17 +1983,17 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="37">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2000,8 +2001,8 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="62" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -2012,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2020,8 +2021,8 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="63"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2038,8 +2039,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="10" t="s">
         <v>41</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2056,19 +2057,19 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="62" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="37">
         <v>0.25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2076,17 +2077,17 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="63"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="36">
         <v>0.25</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2094,17 +2095,17 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="58"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="37">
         <v>0.25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2112,17 +2113,17 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="36">
         <v>0.25</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2130,8 +2131,8 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="63"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2148,8 +2149,8 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="10" t="s">
         <v>40</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2166,8 +2167,8 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="63"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="6" t="s">
         <v>36</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2184,17 +2185,17 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="36">
         <v>1</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2202,17 +2203,17 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="58"/>
-      <c r="C40" s="63"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="37">
         <v>0.5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2220,17 +2221,17 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="58"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="42">
         <v>0.5</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2241,7 +2242,7 @@
       <c r="B42" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -2252,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2261,7 +2262,7 @@
     </row>
     <row r="43" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="60"/>
-      <c r="C43" s="63"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="10" t="s">
         <v>15</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2279,7 +2280,7 @@
     </row>
     <row r="44" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="60"/>
-      <c r="C44" s="64"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="6" t="s">
         <v>16</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2297,7 +2298,7 @@
     </row>
     <row r="45" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="60"/>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -2308,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2317,16 +2318,16 @@
     </row>
     <row r="46" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="60"/>
-      <c r="C46" s="63"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="37">
         <v>0.5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2335,16 +2336,16 @@
     </row>
     <row r="47" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="60"/>
-      <c r="C47" s="63"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="36">
         <v>0.5</v>
       </c>
       <c r="G47" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2353,7 +2354,7 @@
     </row>
     <row r="48" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="60"/>
-      <c r="C48" s="64"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="6" t="s">
         <v>19</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2371,7 +2372,7 @@
     </row>
     <row r="49" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="60"/>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="64" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -2382,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2391,7 +2392,7 @@
     </row>
     <row r="50" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="60"/>
-      <c r="C50" s="63"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="6" t="s">
         <v>22</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2409,16 +2410,16 @@
     </row>
     <row r="51" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="61"/>
-      <c r="C51" s="68"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="44">
         <v>1</v>
       </c>
       <c r="G51" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2429,7 +2430,7 @@
       <c r="B52" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -2440,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2449,7 +2450,7 @@
     </row>
     <row r="53" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="60"/>
-      <c r="C53" s="63"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="10" t="s">
         <v>25</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2467,7 +2468,7 @@
     </row>
     <row r="54" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="60"/>
-      <c r="C54" s="63"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="6" t="s">
         <v>34</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>0.5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2485,7 +2486,7 @@
     </row>
     <row r="55" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="60"/>
-      <c r="C55" s="64"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="10" t="s">
         <v>26</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>0.5</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2503,7 +2504,7 @@
     </row>
     <row r="56" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="60"/>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -2514,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2523,7 +2524,7 @@
     </row>
     <row r="57" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="60"/>
-      <c r="C57" s="63"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="10" t="s">
         <v>44</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2541,16 +2542,16 @@
     </row>
     <row r="58" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="60"/>
-      <c r="C58" s="63"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="38">
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2572,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2583,14 +2584,14 @@
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
       <c r="D60" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="37">
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2608,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2754,6 +2755,9 @@
     <row r="198" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B15:B20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C25:C28"/>
@@ -2770,9 +2774,6 @@
     <mergeCell ref="B25:B41"/>
     <mergeCell ref="B42:B51"/>
     <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
